--- a/dashboard_xbox_sales.xlsx
+++ b/dashboard_xbox_sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\planilhas\dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DIO\DIO-Vendas-do-Xbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2F8ED6-40B2-4E08-832A-7140AC03FA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29AF995-3DE6-40D8-8A20-7AC5533F482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="319">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -979,6 +982,112 @@
   </si>
   <si>
     <t>Subscription Price</t>
+  </si>
+  <si>
+    <t>É uma pergunta de negócio respondida através de alguma análise de dado específica</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pergunta de Negócio 1 - Qual faturamento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Total de vendas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>planos anuais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (contendo todas as assinaturas agregadas)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pergunta de Negócio 2 - Qual Faturamento</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Total de vendas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> planos anuais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , separado por auto renovação não é por auto renovação</t>
+    </r>
+  </si>
+  <si>
+    <t>Soma de Total Value</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1097,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,8 +1128,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1063,6 +1186,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1082,12 +1216,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1108,33 +1243,25 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Neutro" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1664,8 +1791,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1057275" y="5410199"/>
-          <a:ext cx="1549476" cy="752476"/>
+          <a:off x="1133475" y="5172074"/>
+          <a:ext cx="1778076" cy="714376"/>
           <a:chOff x="3495675" y="5400674"/>
           <a:chExt cx="1549476" cy="752476"/>
         </a:xfrm>
@@ -1860,7 +1987,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1908,7 +2035,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1948,8 +2075,4570 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="L-Desktop" refreshedDate="45760.894026273148" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="295" xr:uid="{A73868F4-B115-42C6-8575-372B32ED6B27}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela1"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="Subscriber ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3231" maxValue="3525"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Plan" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Start Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-01T00:00:00" maxDate="2024-12-17T00:00:00"/>
+    </cacheField>
+    <cacheField name="Auto Renewal" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Yes"/>
+        <s v="No"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Subscription Price" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="15"/>
+    </cacheField>
+    <cacheField name="Subscription Type" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Monthly"/>
+        <s v="Annual"/>
+        <s v="Quarterly"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="EA Play Season Pass" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="EA Play Season Pass_x000a_Price" numFmtId="44">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="30"/>
+    </cacheField>
+    <cacheField name="Minecraft Season Pass" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Minecraft Season Pass Price" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Coupon Value" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Total Value" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="62"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="295">
+  <r>
+    <n v="3231"/>
+    <s v="João Silva"/>
+    <s v="Ultimate"/>
+    <d v="2024-01-01T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3232"/>
+    <s v="Maria Oliveira"/>
+    <s v="Core"/>
+    <d v="2024-01-15T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3233"/>
+    <s v="Lucas Fernandes"/>
+    <s v="Standard"/>
+    <d v="2024-02-10T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3234"/>
+    <s v="Ana Souza"/>
+    <s v="Ultimate"/>
+    <d v="2024-02-20T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3235"/>
+    <s v="Pedro Gonçalves"/>
+    <s v="Core"/>
+    <d v="2024-03-05T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3236"/>
+    <s v="Felipe Costa"/>
+    <s v="Standard"/>
+    <d v="2024-03-02T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <n v="3237"/>
+    <s v="Camila Ribeiro"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-03T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <n v="3238"/>
+    <s v="André Mendes"/>
+    <s v="Core"/>
+    <d v="2024-03-04T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3239"/>
+    <s v="Sofia Almeida"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-05T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3240"/>
+    <s v="Bruno Martins"/>
+    <s v="Standard"/>
+    <d v="2024-03-06T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3241"/>
+    <s v="Rita Castro"/>
+    <s v="Core"/>
+    <d v="2024-03-07T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3242"/>
+    <s v="Marco Túlio"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-08T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3243"/>
+    <s v="Lívia Silveira"/>
+    <s v="Standard"/>
+    <d v="2024-03-09T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3244"/>
+    <s v="Diogo Sousa"/>
+    <s v="Core"/>
+    <d v="2024-03-10T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3245"/>
+    <s v="Fernanda Lima"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-11T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="8"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <n v="3246"/>
+    <s v="Caio Pereira"/>
+    <s v="Standard"/>
+    <d v="2024-03-12T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3247"/>
+    <s v="Beatriz Gomes"/>
+    <s v="Core"/>
+    <d v="2024-03-13T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3248"/>
+    <s v="Cesar Oliveira"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-14T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3249"/>
+    <s v="Débora Machado"/>
+    <s v="Standard"/>
+    <d v="2024-03-15T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3250"/>
+    <s v="Eduardo Vargas"/>
+    <s v="Core"/>
+    <d v="2024-03-16T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3251"/>
+    <s v="Gabriela Santos"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-17T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3252"/>
+    <s v="Henrique Dias"/>
+    <s v="Standard"/>
+    <d v="2024-03-18T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3253"/>
+    <s v="Isabela Moreira"/>
+    <s v="Core"/>
+    <d v="2024-03-19T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3254"/>
+    <s v="Joaquim Barbosa"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-20T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3255"/>
+    <s v="Lara Rocha"/>
+    <s v="Standard"/>
+    <d v="2024-03-21T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3256"/>
+    <s v="Matheus Silva"/>
+    <s v="Core"/>
+    <d v="2024-03-22T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3257"/>
+    <s v="Nicole Costa"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-23T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3258"/>
+    <s v="Otávio Mendonça"/>
+    <s v="Standard"/>
+    <d v="2024-03-24T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3259"/>
+    <s v="Paula Ferreira"/>
+    <s v="Core"/>
+    <d v="2024-03-25T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3260"/>
+    <s v="Raquel Alves"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-26T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3261"/>
+    <s v="Samuel Pires"/>
+    <s v="Standard"/>
+    <d v="2024-03-27T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3262"/>
+    <s v="Tânia Barros"/>
+    <s v="Core"/>
+    <d v="2024-03-28T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3263"/>
+    <s v="Vinicius Lima"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-29T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3264"/>
+    <s v="Yasmin Teixeira"/>
+    <s v="Standard"/>
+    <d v="2024-03-30T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3265"/>
+    <s v="Zé Carlos"/>
+    <s v="Core"/>
+    <d v="2024-03-31T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3266"/>
+    <s v="Amanda Nogueira"/>
+    <s v="Core"/>
+    <d v="2024-04-01T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3267"/>
+    <s v="Bruno Cavalheiro"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-02T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3268"/>
+    <s v="Carla Dias"/>
+    <s v="Standard"/>
+    <d v="2024-04-03T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3269"/>
+    <s v="Diego Fontes"/>
+    <s v="Core"/>
+    <d v="2024-04-04T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3270"/>
+    <s v="Eunice Lima"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-05T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3271"/>
+    <s v="Fábio Martins"/>
+    <s v="Standard"/>
+    <d v="2024-04-06T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3272"/>
+    <s v="Gisele Araújo"/>
+    <s v="Core"/>
+    <d v="2024-04-07T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3273"/>
+    <s v="Hélio Castro"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-08T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3274"/>
+    <s v="Ingrid Menezes"/>
+    <s v="Standard"/>
+    <d v="2024-04-09T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3275"/>
+    <s v="Jorge Baptista"/>
+    <s v="Core"/>
+    <d v="2024-04-10T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3276"/>
+    <s v="Kléber Oliveira"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-11T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3277"/>
+    <s v="Luciana Freitas"/>
+    <s v="Standard"/>
+    <d v="2024-04-12T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3278"/>
+    <s v="Márcia Eller"/>
+    <s v="Core"/>
+    <d v="2024-04-13T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3279"/>
+    <s v="Nilo Peçanha"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-14T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3280"/>
+    <s v="Oscar Neves"/>
+    <s v="Standard"/>
+    <d v="2024-04-15T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3281"/>
+    <s v="Patrícia Soares"/>
+    <s v="Core"/>
+    <d v="2024-04-16T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3282"/>
+    <s v="Quirino Gonçalves"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-17T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3283"/>
+    <s v="Raul Machado"/>
+    <s v="Standard"/>
+    <d v="2024-04-18T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3284"/>
+    <s v="Sônia Lobo"/>
+    <s v="Core"/>
+    <d v="2024-04-19T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3285"/>
+    <s v="Tiago Ramos"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-20T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3286"/>
+    <s v="Ugo Pires"/>
+    <s v="Standard"/>
+    <d v="2024-04-21T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3287"/>
+    <s v="Valéria Nobre"/>
+    <s v="Core"/>
+    <d v="2024-04-22T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3288"/>
+    <s v="William Siqueira"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-23T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3289"/>
+    <s v="Xuxa Meneghel"/>
+    <s v="Standard"/>
+    <d v="2024-04-24T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3290"/>
+    <s v="Yara Figueiredo"/>
+    <s v="Core"/>
+    <d v="2024-04-25T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3291"/>
+    <s v="Zacarias Alves"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-26T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3292"/>
+    <s v="Amanda Bynes"/>
+    <s v="Standard"/>
+    <d v="2024-04-27T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3293"/>
+    <s v="Bruno Mars"/>
+    <s v="Core"/>
+    <d v="2024-04-28T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3294"/>
+    <s v="Carla Bruni"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-29T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3295"/>
+    <s v="Diego Maradona"/>
+    <s v="Standard"/>
+    <d v="2024-04-30T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3296"/>
+    <s v="Estela Marques"/>
+    <s v="Core"/>
+    <d v="2024-05-01T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3297"/>
+    <s v="Fábio Nobre"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-02T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3298"/>
+    <s v="Gabriel Oliveira"/>
+    <s v="Standard"/>
+    <d v="2024-05-03T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3299"/>
+    <s v="Helena Santos"/>
+    <s v="Core"/>
+    <d v="2024-05-04T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3300"/>
+    <s v="Ivan Carvalho"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-05T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3301"/>
+    <s v="Júlia Ferreira"/>
+    <s v="Standard"/>
+    <d v="2024-05-06T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3302"/>
+    <s v="Karla Alves"/>
+    <s v="Core"/>
+    <d v="2024-05-07T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3303"/>
+    <s v="Lucas Mendes"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-08T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3304"/>
+    <s v="Mônica Gomes"/>
+    <s v="Standard"/>
+    <d v="2024-05-09T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3305"/>
+    <s v="Norberto Queiroz"/>
+    <s v="Core"/>
+    <d v="2024-05-10T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3306"/>
+    <s v="Otávio Barros"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-11T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3307"/>
+    <s v="Paula Vieira"/>
+    <s v="Standard"/>
+    <d v="2024-05-12T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3308"/>
+    <s v="Quentin Ramos"/>
+    <s v="Core"/>
+    <d v="2024-05-13T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3309"/>
+    <s v="Raquel Novaes"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-14T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3310"/>
+    <s v="Samantha Lopes"/>
+    <s v="Standard"/>
+    <d v="2024-05-15T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3311"/>
+    <s v="Tiago Martins"/>
+    <s v="Core"/>
+    <d v="2024-05-16T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3312"/>
+    <s v="Ulysses Guimarães"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-17T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3313"/>
+    <s v="Vanessa Silva"/>
+    <s v="Standard"/>
+    <d v="2024-05-18T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3314"/>
+    <s v="William Carneiro"/>
+    <s v="Core"/>
+    <d v="2024-05-19T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3315"/>
+    <s v="Ximena Rocha"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-20T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3316"/>
+    <s v="Yasmin Figueiredo"/>
+    <s v="Standard"/>
+    <d v="2024-05-21T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3317"/>
+    <s v="Zara Cunha"/>
+    <s v="Core"/>
+    <d v="2024-05-22T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3318"/>
+    <s v="Alan Teixeira"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-23T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3319"/>
+    <s v="Bárbara Oliveira"/>
+    <s v="Standard"/>
+    <d v="2024-05-24T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3320"/>
+    <s v="Carlos Junqueira"/>
+    <s v="Core"/>
+    <d v="2024-05-25T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3321"/>
+    <s v="Daniela Moura"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-26T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3322"/>
+    <s v="Eduardo Lima"/>
+    <s v="Standard"/>
+    <d v="2024-05-27T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3323"/>
+    <s v="Fabiana Araújo"/>
+    <s v="Core"/>
+    <d v="2024-05-28T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3324"/>
+    <s v="Geraldo Ribeiro"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-29T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3325"/>
+    <s v="Héctor Vargas"/>
+    <s v="Standard"/>
+    <d v="2024-05-30T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3326"/>
+    <s v="Isabela Fonseca"/>
+    <s v="Core"/>
+    <d v="2024-05-31T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3327"/>
+    <s v="João Pedro Almeida"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-01T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3328"/>
+    <s v="Klara Costa"/>
+    <s v="Standard"/>
+    <d v="2024-06-02T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3329"/>
+    <s v="Luciana Mendes"/>
+    <s v="Core"/>
+    <d v="2024-06-03T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3330"/>
+    <s v="Marcelo Gouveia"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-04T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3331"/>
+    <s v="Nívea Borges"/>
+    <s v="Standard"/>
+    <d v="2024-06-05T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3332"/>
+    <s v="Oscar Nogueira"/>
+    <s v="Core"/>
+    <d v="2024-06-06T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3333"/>
+    <s v="Patrícia Alves"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-07T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3334"/>
+    <s v="Rafaela Silva"/>
+    <s v="Standard"/>
+    <d v="2024-06-08T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3335"/>
+    <s v="Samantha Moraes"/>
+    <s v="Core"/>
+    <d v="2024-06-09T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3336"/>
+    <s v="Tatiana Rocha"/>
+    <s v="Core"/>
+    <d v="2024-06-10T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3337"/>
+    <s v="Ulisses Tavares"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-11T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3338"/>
+    <s v="Víctor Lemos"/>
+    <s v="Standard"/>
+    <d v="2024-06-12T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3339"/>
+    <s v="Wilma Barros"/>
+    <s v="Core"/>
+    <d v="2024-06-13T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3340"/>
+    <s v="Xavier Nascimento"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-14T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3341"/>
+    <s v="Yago Pereira"/>
+    <s v="Standard"/>
+    <d v="2024-06-15T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3342"/>
+    <s v="Zilda Ferreira"/>
+    <s v="Core"/>
+    <d v="2024-06-16T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3343"/>
+    <s v="Amanda Lopes"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-17T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3344"/>
+    <s v="Bruno Miranda"/>
+    <s v="Standard"/>
+    <d v="2024-06-18T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3345"/>
+    <s v="Célia Torres"/>
+    <s v="Core"/>
+    <d v="2024-06-19T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3346"/>
+    <s v="Diogo Souza"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-20T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3347"/>
+    <s v="Elisa Castro"/>
+    <s v="Standard"/>
+    <d v="2024-06-21T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3348"/>
+    <s v="Fátima Lima"/>
+    <s v="Core"/>
+    <d v="2024-06-22T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3349"/>
+    <s v="Geraldo Ribeiro"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-23T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3350"/>
+    <s v="Hélio Martins"/>
+    <s v="Standard"/>
+    <d v="2024-06-24T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3351"/>
+    <s v="Íris Santos"/>
+    <s v="Core"/>
+    <d v="2024-06-25T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3352"/>
+    <s v="João Marcelo"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-26T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3353"/>
+    <s v="Larissa Gomes"/>
+    <s v="Standard"/>
+    <d v="2024-06-27T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3354"/>
+    <s v="Márcio Silva"/>
+    <s v="Core"/>
+    <d v="2024-06-28T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3355"/>
+    <s v="Nadia Costa"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-29T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3356"/>
+    <s v="Oscar Almeida"/>
+    <s v="Standard"/>
+    <d v="2024-06-30T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3357"/>
+    <s v="Patricia Soares"/>
+    <s v="Core"/>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3358"/>
+    <s v="Quênia Barros"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-02T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3359"/>
+    <s v="Rafael Torres"/>
+    <s v="Standard"/>
+    <d v="2024-07-03T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3360"/>
+    <s v="Silvia Nascimento"/>
+    <s v="Core"/>
+    <d v="2024-07-04T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3361"/>
+    <s v="Tiago Mendes"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-05T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3362"/>
+    <s v="Ursula Silva"/>
+    <s v="Standard"/>
+    <d v="2024-07-06T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3363"/>
+    <s v="Vanessa Moraes"/>
+    <s v="Core"/>
+    <d v="2024-07-07T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3364"/>
+    <s v="Waldir Junior"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-08T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3365"/>
+    <s v="Xavier Lopes"/>
+    <s v="Standard"/>
+    <d v="2024-07-09T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3366"/>
+    <s v="Yolanda Freitas"/>
+    <s v="Core"/>
+    <d v="2024-07-10T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3367"/>
+    <s v="Zacarias Nunes"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-11T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3368"/>
+    <s v="Ana Clara Barreto"/>
+    <s v="Standard"/>
+    <d v="2024-07-12T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3369"/>
+    <s v="Bruno Henrique"/>
+    <s v="Core"/>
+    <d v="2024-07-13T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3370"/>
+    <s v="Carlos Eduardo"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-14T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3371"/>
+    <s v="Débora Lima"/>
+    <s v="Standard"/>
+    <d v="2024-07-15T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3372"/>
+    <s v="Elisa Neves"/>
+    <s v="Core"/>
+    <d v="2024-07-16T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3373"/>
+    <s v="Fabiano Gomes"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-17T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3374"/>
+    <s v="Gisele Oliveira"/>
+    <s v="Standard"/>
+    <d v="2024-07-18T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3375"/>
+    <s v="Héctor Silva"/>
+    <s v="Core"/>
+    <d v="2024-07-19T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3376"/>
+    <s v="Igor Martins"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-20T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3377"/>
+    <s v="Joana Figueiredo"/>
+    <s v="Standard"/>
+    <d v="2024-07-21T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3378"/>
+    <s v="Kleber Machado"/>
+    <s v="Core"/>
+    <d v="2024-07-22T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3379"/>
+    <s v="Luciana Santos"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-23T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3380"/>
+    <s v="Marcos Teixeira"/>
+    <s v="Standard"/>
+    <d v="2024-07-24T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3381"/>
+    <s v="Natalia Costa"/>
+    <s v="Core"/>
+    <d v="2024-07-25T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3382"/>
+    <s v="Oscar Ribeiro"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-26T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3383"/>
+    <s v="Patricia Almeida"/>
+    <s v="Standard"/>
+    <d v="2024-07-27T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3384"/>
+    <s v="Quirino Junior"/>
+    <s v="Core"/>
+    <d v="2024-07-28T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3385"/>
+    <s v="Renata Machado"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-29T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3386"/>
+    <s v="Sônia Alves"/>
+    <s v="Standard"/>
+    <d v="2024-07-30T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3387"/>
+    <s v="Tiago Nunes"/>
+    <s v="Core"/>
+    <d v="2024-07-31T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3388"/>
+    <s v="Ulysses Pereira"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3389"/>
+    <s v="Vanessa Lima"/>
+    <s v="Standard"/>
+    <d v="2024-08-02T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3390"/>
+    <s v="Wagner Santos"/>
+    <s v="Core"/>
+    <d v="2024-08-03T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3391"/>
+    <s v="Xuxa Meneghel"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-04T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3392"/>
+    <s v="Yasmin Silva"/>
+    <s v="Standard"/>
+    <d v="2024-08-05T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3393"/>
+    <s v="Zacarias de Souza"/>
+    <s v="Core"/>
+    <d v="2024-08-06T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3394"/>
+    <s v="André Lima"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-07T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3395"/>
+    <s v="Bianca Freitas"/>
+    <s v="Standard"/>
+    <d v="2024-08-08T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3396"/>
+    <s v="Caio Mendes"/>
+    <s v="Core"/>
+    <d v="2024-08-09T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3397"/>
+    <s v="Daniela Moura"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-10T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3398"/>
+    <s v="Eduardo Costa"/>
+    <s v="Standard"/>
+    <d v="2024-08-11T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3399"/>
+    <s v="Fernanda Gomes"/>
+    <s v="Core"/>
+    <d v="2024-08-12T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3400"/>
+    <s v="Guilherme Souza"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-13T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3401"/>
+    <s v="Helena Ribeiro"/>
+    <s v="Standard"/>
+    <d v="2024-08-14T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3402"/>
+    <s v="Igor Santos"/>
+    <s v="Core"/>
+    <d v="2024-08-15T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3403"/>
+    <s v="João Carvalho"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-16T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3404"/>
+    <s v="Klara Fagundes"/>
+    <s v="Standard"/>
+    <d v="2024-08-17T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3405"/>
+    <s v="Lúcia Mendonça"/>
+    <s v="Core"/>
+    <d v="2024-08-18T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3406"/>
+    <s v="Marcelo Novaes"/>
+    <s v="Core"/>
+    <d v="2024-08-19T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3407"/>
+    <s v="Nina Pacheco"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-20T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3408"/>
+    <s v="Olívia Rios"/>
+    <s v="Standard"/>
+    <d v="2024-08-21T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3409"/>
+    <s v="Paulo Quintana"/>
+    <s v="Core"/>
+    <d v="2024-08-22T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3410"/>
+    <s v="Raquel Domingos"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-23T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3411"/>
+    <s v="Samuel Viana"/>
+    <s v="Standard"/>
+    <d v="2024-08-24T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3412"/>
+    <s v="Tatiane Rocha"/>
+    <s v="Core"/>
+    <d v="2024-08-25T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3413"/>
+    <s v="Ulysses Farias"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-26T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3414"/>
+    <s v="Vanessa Moreira"/>
+    <s v="Standard"/>
+    <d v="2024-08-27T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3415"/>
+    <s v="William Carvalho"/>
+    <s v="Core"/>
+    <d v="2024-08-28T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3416"/>
+    <s v="Ximena Barros"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-29T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3417"/>
+    <s v="Yara Machado"/>
+    <s v="Standard"/>
+    <d v="2024-08-30T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3418"/>
+    <s v="Zacarias Costa"/>
+    <s v="Core"/>
+    <d v="2024-08-31T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3419"/>
+    <s v="André Lopes"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3420"/>
+    <s v="Beatriz Souza"/>
+    <s v="Standard"/>
+    <d v="2024-09-02T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3421"/>
+    <s v="Caio Pereira"/>
+    <s v="Core"/>
+    <d v="2024-09-03T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3422"/>
+    <s v="Daniela Araújo"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-04T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3423"/>
+    <s v="Eduardo Santos"/>
+    <s v="Standard"/>
+    <d v="2024-09-05T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3424"/>
+    <s v="Fernanda Lima"/>
+    <s v="Core"/>
+    <d v="2024-09-06T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3425"/>
+    <s v="Gabriel Teixeira"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-07T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3426"/>
+    <s v="Helena Ribeiro"/>
+    <s v="Standard"/>
+    <d v="2024-09-08T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3427"/>
+    <s v="Igor Mendes"/>
+    <s v="Core"/>
+    <d v="2024-09-09T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3428"/>
+    <s v="Joana Silveira"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-10T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3429"/>
+    <s v="Lucas Martins"/>
+    <s v="Standard"/>
+    <d v="2024-09-11T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3430"/>
+    <s v="Marcela Gouveia"/>
+    <s v="Core"/>
+    <d v="2024-09-12T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3431"/>
+    <s v="Nicolas Borges"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-13T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3432"/>
+    <s v="Olivia Freitas"/>
+    <s v="Standard"/>
+    <d v="2024-09-14T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3433"/>
+    <s v="Paulo Nogueira"/>
+    <s v="Core"/>
+    <d v="2024-09-15T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3434"/>
+    <s v="Raquel Andrade"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-16T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3435"/>
+    <s v="Sônia Carvalho"/>
+    <s v="Standard"/>
+    <d v="2024-09-17T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3436"/>
+    <s v="Tiago Rodrigues"/>
+    <s v="Core"/>
+    <d v="2024-09-18T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3437"/>
+    <s v="Ursula Monteiro"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-19T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3438"/>
+    <s v="Vanessa Pereira"/>
+    <s v="Standard"/>
+    <d v="2024-09-20T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3439"/>
+    <s v="Walter Silva"/>
+    <s v="Core"/>
+    <d v="2024-09-21T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3440"/>
+    <s v="Xavier Almeida"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-22T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3441"/>
+    <s v="Yasmine Correia"/>
+    <s v="Standard"/>
+    <d v="2024-09-23T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3442"/>
+    <s v="Zacarias Almeida"/>
+    <s v="Core"/>
+    <d v="2024-09-24T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3443"/>
+    <s v="Amanda Costa"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-25T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3444"/>
+    <s v="Bruno Ferreira"/>
+    <s v="Standard"/>
+    <d v="2024-09-26T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3445"/>
+    <s v="Carla Dias"/>
+    <s v="Core"/>
+    <d v="2024-09-27T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3446"/>
+    <s v="Diogo Martins"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-28T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3447"/>
+    <s v="Elisa Campos"/>
+    <s v="Standard"/>
+    <d v="2024-09-29T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3448"/>
+    <s v="Fabiana Lima"/>
+    <s v="Core"/>
+    <d v="2024-09-30T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3449"/>
+    <s v="Gabriel Santos"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3450"/>
+    <s v="Helena Ferreira"/>
+    <s v="Standard"/>
+    <d v="2024-10-02T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3451"/>
+    <s v="Ígor Nunes"/>
+    <s v="Core"/>
+    <d v="2024-10-03T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3452"/>
+    <s v="Joana Silveira"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-04T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3453"/>
+    <s v="Kléber Oliveira"/>
+    <s v="Standard"/>
+    <d v="2024-10-05T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3454"/>
+    <s v="Luciana Morais"/>
+    <s v="Core"/>
+    <d v="2024-10-06T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3455"/>
+    <s v="Marcos Vinícius"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-07T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3456"/>
+    <s v="Natália Barros"/>
+    <s v="Standard"/>
+    <d v="2024-10-08T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3457"/>
+    <s v="Oscar Sampaio"/>
+    <s v="Core"/>
+    <d v="2024-10-09T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3458"/>
+    <s v="Patrícia Leite"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-10T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3459"/>
+    <s v="Quênia Rocha"/>
+    <s v="Standard"/>
+    <d v="2024-10-11T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3460"/>
+    <s v="Rafael Torres"/>
+    <s v="Core"/>
+    <d v="2024-10-12T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3461"/>
+    <s v="Sandra Gouveia"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-13T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3462"/>
+    <s v="Tiago Lacerda"/>
+    <s v="Standard"/>
+    <d v="2024-10-14T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3463"/>
+    <s v="Ursula Fonseca"/>
+    <s v="Core"/>
+    <d v="2024-10-15T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3464"/>
+    <s v="Vanessa Andrade"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-16T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3465"/>
+    <s v="William Castro"/>
+    <s v="Standard"/>
+    <d v="2024-10-17T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3466"/>
+    <s v="Xavier Monteiro"/>
+    <s v="Core"/>
+    <d v="2024-10-18T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3467"/>
+    <s v="Yasmin Figueira"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-19T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3468"/>
+    <s v="Zacarias Mendonça"/>
+    <s v="Standard"/>
+    <d v="2024-10-20T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3469"/>
+    <s v="Amanda Menezes"/>
+    <s v="Core"/>
+    <d v="2024-10-21T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3470"/>
+    <s v="Bruno Santos"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-22T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3471"/>
+    <s v="Carla Ferreira"/>
+    <s v="Standard"/>
+    <d v="2024-10-23T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3472"/>
+    <s v="Diogo Alves"/>
+    <s v="Core"/>
+    <d v="2024-10-24T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3473"/>
+    <s v="Elisa Neves"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-25T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3474"/>
+    <s v="Fabiano Pires"/>
+    <s v="Standard"/>
+    <d v="2024-10-26T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3475"/>
+    <s v="Giovana Ribeiro"/>
+    <s v="Core"/>
+    <d v="2024-10-27T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3476"/>
+    <s v="Hélio Costa"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-28T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3477"/>
+    <s v="Íris Loureiro"/>
+    <s v="Standard"/>
+    <d v="2024-10-29T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3478"/>
+    <s v="João Pereira"/>
+    <s v="Core"/>
+    <d v="2024-10-30T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3479"/>
+    <s v="Klara Silva"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-31T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3480"/>
+    <s v="Luciana Barros"/>
+    <s v="Standard"/>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3481"/>
+    <s v="Marcos Gomes"/>
+    <s v="Core"/>
+    <d v="2024-11-02T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3482"/>
+    <s v="Natália Soares"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-03T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3483"/>
+    <s v="Oscar Machado"/>
+    <s v="Standard"/>
+    <d v="2024-11-04T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3484"/>
+    <s v="Patrícia Lima"/>
+    <s v="Core"/>
+    <d v="2024-11-05T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3485"/>
+    <s v="Quirino Neto"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-06T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3486"/>
+    <s v="Rafaela Souza"/>
+    <s v="Core"/>
+    <d v="2024-11-07T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3487"/>
+    <s v="Sandro Almeida"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-08T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3488"/>
+    <s v="Tânia Ribeiro"/>
+    <s v="Standard"/>
+    <d v="2024-11-09T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3489"/>
+    <s v="Ugo Dias"/>
+    <s v="Core"/>
+    <d v="2024-11-10T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3490"/>
+    <s v="Valéria Lima"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-11T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3491"/>
+    <s v="William Fernandes"/>
+    <s v="Standard"/>
+    <d v="2024-11-12T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3492"/>
+    <s v="Xuxa Mendes"/>
+    <s v="Core"/>
+    <d v="2024-11-13T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3493"/>
+    <s v="Ygor Farias"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-14T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3494"/>
+    <s v="Zilda Barros"/>
+    <s v="Standard"/>
+    <d v="2024-11-15T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3495"/>
+    <s v="Amanda Santos"/>
+    <s v="Core"/>
+    <d v="2024-11-16T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3496"/>
+    <s v="Bruno Costa"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-17T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3497"/>
+    <s v="Carla Rodrigues"/>
+    <s v="Standard"/>
+    <d v="2024-11-18T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3498"/>
+    <s v="Diogo Pereira"/>
+    <s v="Core"/>
+    <d v="2024-11-19T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3499"/>
+    <s v="Elisa Correia"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-20T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3500"/>
+    <s v="Fábio Lourenço"/>
+    <s v="Standard"/>
+    <d v="2024-11-21T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3501"/>
+    <s v="Gabriela Neves"/>
+    <s v="Core"/>
+    <d v="2024-11-22T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3502"/>
+    <s v="Henrique Gonçalves"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-23T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3503"/>
+    <s v="Íris Santos"/>
+    <s v="Standard"/>
+    <d v="2024-11-24T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3504"/>
+    <s v="João Marcelo Alves"/>
+    <s v="Core"/>
+    <d v="2024-11-25T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3505"/>
+    <s v="Klara Fonseca"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-26T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3506"/>
+    <s v="Lucas Mendonça"/>
+    <s v="Standard"/>
+    <d v="2024-11-27T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3507"/>
+    <s v="Marcela Torres"/>
+    <s v="Core"/>
+    <d v="2024-11-28T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3508"/>
+    <s v="Natália Castro"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-29T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3509"/>
+    <s v="Oscar Martins"/>
+    <s v="Standard"/>
+    <d v="2024-11-30T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3510"/>
+    <s v="Patrícia Oliveira"/>
+    <s v="Core"/>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3511"/>
+    <s v="Quentin Nogueira"/>
+    <s v="Ultimate"/>
+    <d v="2024-12-02T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3512"/>
+    <s v="Raquel Silva"/>
+    <s v="Standard"/>
+    <d v="2024-12-03T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3513"/>
+    <s v="Sandro Gomes"/>
+    <s v="Core"/>
+    <d v="2024-12-04T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3514"/>
+    <s v="Tânia Machado"/>
+    <s v="Ultimate"/>
+    <d v="2024-12-05T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3515"/>
+    <s v="Ursula Silva"/>
+    <s v="Standard"/>
+    <d v="2024-12-06T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3516"/>
+    <s v="Vanessa Moraes"/>
+    <s v="Core"/>
+    <d v="2024-12-07T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3517"/>
+    <s v="William Carvalho"/>
+    <s v="Ultimate"/>
+    <d v="2024-12-08T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3518"/>
+    <s v="Xavier Reis"/>
+    <s v="Standard"/>
+    <d v="2024-12-09T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3519"/>
+    <s v="Yasmin Rocha"/>
+    <s v="Core"/>
+    <d v="2024-12-10T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3520"/>
+    <s v="Zacarias Duarte"/>
+    <s v="Ultimate"/>
+    <d v="2024-12-11T00:00:00"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3521"/>
+    <s v="Amanda Freitas"/>
+    <s v="Standard"/>
+    <d v="2024-12-12T00:00:00"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3522"/>
+    <s v="Bruno Almeida"/>
+    <s v="Core"/>
+    <d v="2024-12-13T00:00:00"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3523"/>
+    <s v="Carla Siqueira"/>
+    <s v="Ultimate"/>
+    <d v="2024-12-14T00:00:00"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3524"/>
+    <s v="Diogo Ramos"/>
+    <s v="Standard"/>
+    <d v="2024-12-15T00:00:00"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3525"/>
+    <s v="Elisa Magalhães"/>
+    <s v="Core"/>
+    <d v="2024-12-16T00:00:00"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EC8D6D2-BFCC-48E6-989A-4B46A9CE0253}" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B12:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
     <filterColumn colId="7">
       <filters>
@@ -1958,19 +6647,19 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="15" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="10" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="9" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="8" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="9" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="2" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2298,16 +6987,16 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="20.25" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2318,8 +7007,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15" thickTop="1"/>
+    <row r="5" spans="2:16">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2333,7 +7022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2341,7 +7030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2349,7 +7038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16">
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
@@ -2357,7 +7046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" ht="20.25" thickBot="1">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2377,7 +7066,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15" thickTop="1">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2386,7 +7075,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2395,7 +7084,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2404,7 +7093,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2413,7 +7102,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2422,7 +7111,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2431,7 +7120,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2440,7 +7129,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2449,7 +7138,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2471,28 +7160,28 @@
   </sheetPr>
   <dimension ref="A1:M296"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I294"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:M294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +7222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="8">
         <v>3231</v>
       </c>
@@ -2574,7 +7263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A3" s="8">
         <v>3232</v>
       </c>
@@ -2615,7 +7304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A4" s="8">
         <v>3233</v>
       </c>
@@ -2656,7 +7345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" customHeight="1">
       <c r="A5" s="8">
         <v>3234</v>
       </c>
@@ -2697,7 +7386,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A6" s="8">
         <v>3235</v>
       </c>
@@ -2738,7 +7427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A7" s="8">
         <v>3236</v>
       </c>
@@ -2779,7 +7468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.5" customHeight="1">
       <c r="A8" s="8">
         <v>3237</v>
       </c>
@@ -2820,7 +7509,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A9" s="8">
         <v>3238</v>
       </c>
@@ -2861,7 +7550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.5" customHeight="1">
       <c r="A10" s="8">
         <v>3239</v>
       </c>
@@ -2902,7 +7591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A11" s="8">
         <v>3240</v>
       </c>
@@ -2943,7 +7632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A12" s="8">
         <v>3241</v>
       </c>
@@ -2984,7 +7673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16.5" customHeight="1">
       <c r="A13" s="8">
         <v>3242</v>
       </c>
@@ -3025,7 +7714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A14" s="8">
         <v>3243</v>
       </c>
@@ -3066,7 +7755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A15" s="8">
         <v>3244</v>
       </c>
@@ -3107,7 +7796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16.5" customHeight="1">
       <c r="A16" s="8">
         <v>3245</v>
       </c>
@@ -3148,7 +7837,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A17" s="8">
         <v>3246</v>
       </c>
@@ -3189,7 +7878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A18" s="8">
         <v>3247</v>
       </c>
@@ -3230,7 +7919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" customHeight="1">
       <c r="A19" s="8">
         <v>3248</v>
       </c>
@@ -3271,7 +7960,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A20" s="8">
         <v>3249</v>
       </c>
@@ -3312,7 +8001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A21" s="8">
         <v>3250</v>
       </c>
@@ -3353,7 +8042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="8">
         <v>3251</v>
       </c>
@@ -3394,7 +8083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A23" s="8">
         <v>3252</v>
       </c>
@@ -3435,7 +8124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A24" s="8">
         <v>3253</v>
       </c>
@@ -3476,7 +8165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="16.5" customHeight="1">
       <c r="A25" s="8">
         <v>3254</v>
       </c>
@@ -3517,7 +8206,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A26" s="8">
         <v>3255</v>
       </c>
@@ -3558,7 +8247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A27" s="8">
         <v>3256</v>
       </c>
@@ -3599,7 +8288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="16.5" customHeight="1">
       <c r="A28" s="8">
         <v>3257</v>
       </c>
@@ -3640,7 +8329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A29" s="8">
         <v>3258</v>
       </c>
@@ -3681,7 +8370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A30" s="8">
         <v>3259</v>
       </c>
@@ -3722,7 +8411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="16.5" customHeight="1">
       <c r="A31" s="8">
         <v>3260</v>
       </c>
@@ -3763,7 +8452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A32" s="8">
         <v>3261</v>
       </c>
@@ -3804,7 +8493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A33" s="8">
         <v>3262</v>
       </c>
@@ -3845,7 +8534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="16.5" customHeight="1">
       <c r="A34" s="8">
         <v>3263</v>
       </c>
@@ -3886,7 +8575,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A35" s="8">
         <v>3264</v>
       </c>
@@ -3927,7 +8616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A36" s="8">
         <v>3265</v>
       </c>
@@ -3968,7 +8657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A37" s="8">
         <v>3266</v>
       </c>
@@ -4009,7 +8698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="16.5" customHeight="1">
       <c r="A38" s="8">
         <v>3267</v>
       </c>
@@ -4050,7 +8739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A39" s="8">
         <v>3268</v>
       </c>
@@ -4091,7 +8780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A40" s="8">
         <v>3269</v>
       </c>
@@ -4132,7 +8821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="16.5" customHeight="1">
       <c r="A41" s="8">
         <v>3270</v>
       </c>
@@ -4173,7 +8862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A42" s="8">
         <v>3271</v>
       </c>
@@ -4214,7 +8903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A43" s="8">
         <v>3272</v>
       </c>
@@ -4255,7 +8944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="16.5" customHeight="1">
       <c r="A44" s="8">
         <v>3273</v>
       </c>
@@ -4296,7 +8985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A45" s="8">
         <v>3274</v>
       </c>
@@ -4337,7 +9026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A46" s="8">
         <v>3275</v>
       </c>
@@ -4378,7 +9067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="16.5" customHeight="1">
       <c r="A47" s="8">
         <v>3276</v>
       </c>
@@ -4419,7 +9108,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A48" s="8">
         <v>3277</v>
       </c>
@@ -4460,7 +9149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A49" s="8">
         <v>3278</v>
       </c>
@@ -4501,7 +9190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="8">
         <v>3279</v>
       </c>
@@ -4542,7 +9231,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A51" s="8">
         <v>3280</v>
       </c>
@@ -4583,7 +9272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A52" s="8">
         <v>3281</v>
       </c>
@@ -4624,7 +9313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="8">
         <v>3282</v>
       </c>
@@ -4665,7 +9354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A54" s="8">
         <v>3283</v>
       </c>
@@ -4706,7 +9395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A55" s="8">
         <v>3284</v>
       </c>
@@ -4747,7 +9436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="8">
         <v>3285</v>
       </c>
@@ -4788,7 +9477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A57" s="8">
         <v>3286</v>
       </c>
@@ -4829,7 +9518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A58" s="8">
         <v>3287</v>
       </c>
@@ -4870,7 +9559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="8">
         <v>3288</v>
       </c>
@@ -4911,7 +9600,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A60" s="8">
         <v>3289</v>
       </c>
@@ -4952,7 +9641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A61" s="8">
         <v>3290</v>
       </c>
@@ -4993,7 +9682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="16.5" customHeight="1">
       <c r="A62" s="8">
         <v>3291</v>
       </c>
@@ -5034,7 +9723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A63" s="8">
         <v>3292</v>
       </c>
@@ -5075,7 +9764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A64" s="8">
         <v>3293</v>
       </c>
@@ -5116,7 +9805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="16.5" customHeight="1">
       <c r="A65" s="8">
         <v>3294</v>
       </c>
@@ -5157,7 +9846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A66" s="8">
         <v>3295</v>
       </c>
@@ -5198,7 +9887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A67" s="8">
         <v>3296</v>
       </c>
@@ -5239,7 +9928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="16.5" customHeight="1">
       <c r="A68" s="8">
         <v>3297</v>
       </c>
@@ -5280,7 +9969,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A69" s="8">
         <v>3298</v>
       </c>
@@ -5321,7 +10010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A70" s="8">
         <v>3299</v>
       </c>
@@ -5362,7 +10051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="16.5" customHeight="1">
       <c r="A71" s="8">
         <v>3300</v>
       </c>
@@ -5403,7 +10092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A72" s="8">
         <v>3301</v>
       </c>
@@ -5444,7 +10133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A73" s="8">
         <v>3302</v>
       </c>
@@ -5485,7 +10174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="16.5" customHeight="1">
       <c r="A74" s="8">
         <v>3303</v>
       </c>
@@ -5526,7 +10215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A75" s="8">
         <v>3304</v>
       </c>
@@ -5567,7 +10256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A76" s="8">
         <v>3305</v>
       </c>
@@ -5608,7 +10297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="16.5" customHeight="1">
       <c r="A77" s="8">
         <v>3306</v>
       </c>
@@ -5649,7 +10338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A78" s="8">
         <v>3307</v>
       </c>
@@ -5690,7 +10379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A79" s="8">
         <v>3308</v>
       </c>
@@ -5731,7 +10420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="16.5" customHeight="1">
       <c r="A80" s="8">
         <v>3309</v>
       </c>
@@ -5772,7 +10461,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A81" s="8">
         <v>3310</v>
       </c>
@@ -5813,7 +10502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A82" s="8">
         <v>3311</v>
       </c>
@@ -5854,7 +10543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="16.5" customHeight="1">
       <c r="A83" s="8">
         <v>3312</v>
       </c>
@@ -5895,7 +10584,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A84" s="8">
         <v>3313</v>
       </c>
@@ -5936,7 +10625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A85" s="8">
         <v>3314</v>
       </c>
@@ -5977,7 +10666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="16.5" customHeight="1">
       <c r="A86" s="8">
         <v>3315</v>
       </c>
@@ -6018,7 +10707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A87" s="8">
         <v>3316</v>
       </c>
@@ -6059,7 +10748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A88" s="8">
         <v>3317</v>
       </c>
@@ -6100,7 +10789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="16.5" customHeight="1">
       <c r="A89" s="8">
         <v>3318</v>
       </c>
@@ -6141,7 +10830,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A90" s="8">
         <v>3319</v>
       </c>
@@ -6182,7 +10871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A91" s="8">
         <v>3320</v>
       </c>
@@ -6223,7 +10912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="16.5" customHeight="1">
       <c r="A92" s="8">
         <v>3321</v>
       </c>
@@ -6264,7 +10953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A93" s="8">
         <v>3322</v>
       </c>
@@ -6305,7 +10994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A94" s="8">
         <v>3323</v>
       </c>
@@ -6346,7 +11035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="16.5" customHeight="1">
       <c r="A95" s="8">
         <v>3324</v>
       </c>
@@ -6387,7 +11076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A96" s="8">
         <v>3325</v>
       </c>
@@ -6428,7 +11117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A97" s="8">
         <v>3326</v>
       </c>
@@ -6469,7 +11158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="16.5" customHeight="1">
       <c r="A98" s="8">
         <v>3327</v>
       </c>
@@ -6510,7 +11199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A99" s="8">
         <v>3328</v>
       </c>
@@ -6551,7 +11240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A100" s="8">
         <v>3329</v>
       </c>
@@ -6592,7 +11281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="16.5" customHeight="1">
       <c r="A101" s="8">
         <v>3330</v>
       </c>
@@ -6633,7 +11322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A102" s="8">
         <v>3331</v>
       </c>
@@ -6674,7 +11363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A103" s="8">
         <v>3332</v>
       </c>
@@ -6715,7 +11404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="16.5" customHeight="1">
       <c r="A104" s="8">
         <v>3333</v>
       </c>
@@ -6756,7 +11445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A105" s="8">
         <v>3334</v>
       </c>
@@ -6797,7 +11486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A106" s="8">
         <v>3335</v>
       </c>
@@ -6838,7 +11527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A107" s="8">
         <v>3336</v>
       </c>
@@ -6879,7 +11568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="16.5" customHeight="1">
       <c r="A108" s="8">
         <v>3337</v>
       </c>
@@ -6920,7 +11609,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A109" s="8">
         <v>3338</v>
       </c>
@@ -6961,7 +11650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A110" s="8">
         <v>3339</v>
       </c>
@@ -7002,7 +11691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="16.5" customHeight="1">
       <c r="A111" s="8">
         <v>3340</v>
       </c>
@@ -7043,7 +11732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A112" s="8">
         <v>3341</v>
       </c>
@@ -7084,7 +11773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A113" s="8">
         <v>3342</v>
       </c>
@@ -7125,7 +11814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="16.5" customHeight="1">
       <c r="A114" s="8">
         <v>3343</v>
       </c>
@@ -7166,7 +11855,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A115" s="8">
         <v>3344</v>
       </c>
@@ -7207,7 +11896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A116" s="8">
         <v>3345</v>
       </c>
@@ -7248,7 +11937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="16.5" customHeight="1">
       <c r="A117" s="8">
         <v>3346</v>
       </c>
@@ -7289,7 +11978,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A118" s="8">
         <v>3347</v>
       </c>
@@ -7330,7 +12019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A119" s="8">
         <v>3348</v>
       </c>
@@ -7371,7 +12060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="16.5" customHeight="1">
       <c r="A120" s="8">
         <v>3349</v>
       </c>
@@ -7412,7 +12101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A121" s="8">
         <v>3350</v>
       </c>
@@ -7453,7 +12142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A122" s="8">
         <v>3351</v>
       </c>
@@ -7494,7 +12183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="16.5" customHeight="1">
       <c r="A123" s="8">
         <v>3352</v>
       </c>
@@ -7535,7 +12224,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A124" s="8">
         <v>3353</v>
       </c>
@@ -7576,7 +12265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A125" s="8">
         <v>3354</v>
       </c>
@@ -7617,7 +12306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="16.5" customHeight="1">
       <c r="A126" s="8">
         <v>3355</v>
       </c>
@@ -7658,7 +12347,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A127" s="8">
         <v>3356</v>
       </c>
@@ -7699,7 +12388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A128" s="8">
         <v>3357</v>
       </c>
@@ -7740,7 +12429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="16.5" customHeight="1">
       <c r="A129" s="8">
         <v>3358</v>
       </c>
@@ -7781,7 +12470,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A130" s="8">
         <v>3359</v>
       </c>
@@ -7822,7 +12511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A131" s="8">
         <v>3360</v>
       </c>
@@ -7863,7 +12552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="16.5" customHeight="1">
       <c r="A132" s="8">
         <v>3361</v>
       </c>
@@ -7904,7 +12593,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A133" s="8">
         <v>3362</v>
       </c>
@@ -7945,7 +12634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A134" s="8">
         <v>3363</v>
       </c>
@@ -7986,7 +12675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="16.5" customHeight="1">
       <c r="A135" s="8">
         <v>3364</v>
       </c>
@@ -8027,7 +12716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A136" s="8">
         <v>3365</v>
       </c>
@@ -8068,7 +12757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A137" s="8">
         <v>3366</v>
       </c>
@@ -8109,7 +12798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="16.5" customHeight="1">
       <c r="A138" s="8">
         <v>3367</v>
       </c>
@@ -8150,7 +12839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A139" s="8">
         <v>3368</v>
       </c>
@@ -8191,7 +12880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A140" s="8">
         <v>3369</v>
       </c>
@@ -8232,7 +12921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="16.5" customHeight="1">
       <c r="A141" s="8">
         <v>3370</v>
       </c>
@@ -8273,7 +12962,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A142" s="8">
         <v>3371</v>
       </c>
@@ -8314,7 +13003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A143" s="8">
         <v>3372</v>
       </c>
@@ -8355,7 +13044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="16.5" customHeight="1">
       <c r="A144" s="8">
         <v>3373</v>
       </c>
@@ -8396,7 +13085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A145" s="8">
         <v>3374</v>
       </c>
@@ -8437,7 +13126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A146" s="8">
         <v>3375</v>
       </c>
@@ -8478,7 +13167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="16.5" customHeight="1">
       <c r="A147" s="8">
         <v>3376</v>
       </c>
@@ -8519,7 +13208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A148" s="8">
         <v>3377</v>
       </c>
@@ -8560,7 +13249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A149" s="8">
         <v>3378</v>
       </c>
@@ -8601,7 +13290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="16.5" customHeight="1">
       <c r="A150" s="8">
         <v>3379</v>
       </c>
@@ -8642,7 +13331,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A151" s="8">
         <v>3380</v>
       </c>
@@ -8683,7 +13372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A152" s="8">
         <v>3381</v>
       </c>
@@ -8724,7 +13413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="16.5" customHeight="1">
       <c r="A153" s="8">
         <v>3382</v>
       </c>
@@ -8765,7 +13454,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A154" s="8">
         <v>3383</v>
       </c>
@@ -8806,7 +13495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A155" s="8">
         <v>3384</v>
       </c>
@@ -8847,7 +13536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="16.5" customHeight="1">
       <c r="A156" s="8">
         <v>3385</v>
       </c>
@@ -8888,7 +13577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A157" s="8">
         <v>3386</v>
       </c>
@@ -8929,7 +13618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A158" s="8">
         <v>3387</v>
       </c>
@@ -8970,7 +13659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="16.5" customHeight="1">
       <c r="A159" s="8">
         <v>3388</v>
       </c>
@@ -9011,7 +13700,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A160" s="8">
         <v>3389</v>
       </c>
@@ -9052,7 +13741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A161" s="8">
         <v>3390</v>
       </c>
@@ -9093,7 +13782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="16.5" customHeight="1">
       <c r="A162" s="8">
         <v>3391</v>
       </c>
@@ -9134,7 +13823,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A163" s="8">
         <v>3392</v>
       </c>
@@ -9175,7 +13864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A164" s="8">
         <v>3393</v>
       </c>
@@ -9216,7 +13905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="16.5" customHeight="1">
       <c r="A165" s="8">
         <v>3394</v>
       </c>
@@ -9257,7 +13946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A166" s="8">
         <v>3395</v>
       </c>
@@ -9298,7 +13987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A167" s="8">
         <v>3396</v>
       </c>
@@ -9339,7 +14028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="16.5" customHeight="1">
       <c r="A168" s="8">
         <v>3397</v>
       </c>
@@ -9380,7 +14069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A169" s="8">
         <v>3398</v>
       </c>
@@ -9421,7 +14110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A170" s="8">
         <v>3399</v>
       </c>
@@ -9462,7 +14151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="16.5" customHeight="1">
       <c r="A171" s="8">
         <v>3400</v>
       </c>
@@ -9503,7 +14192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A172" s="8">
         <v>3401</v>
       </c>
@@ -9544,7 +14233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A173" s="8">
         <v>3402</v>
       </c>
@@ -9585,7 +14274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="16.5" customHeight="1">
       <c r="A174" s="8">
         <v>3403</v>
       </c>
@@ -9626,7 +14315,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A175" s="8">
         <v>3404</v>
       </c>
@@ -9667,7 +14356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A176" s="8">
         <v>3405</v>
       </c>
@@ -9708,7 +14397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A177" s="8">
         <v>3406</v>
       </c>
@@ -9749,7 +14438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" ht="16.5" customHeight="1">
       <c r="A178" s="8">
         <v>3407</v>
       </c>
@@ -9790,7 +14479,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A179" s="8">
         <v>3408</v>
       </c>
@@ -9831,7 +14520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A180" s="8">
         <v>3409</v>
       </c>
@@ -9872,7 +14561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" ht="16.5" customHeight="1">
       <c r="A181" s="8">
         <v>3410</v>
       </c>
@@ -9913,7 +14602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A182" s="8">
         <v>3411</v>
       </c>
@@ -9954,7 +14643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A183" s="8">
         <v>3412</v>
       </c>
@@ -9995,7 +14684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" ht="16.5" customHeight="1">
       <c r="A184" s="8">
         <v>3413</v>
       </c>
@@ -10036,7 +14725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A185" s="8">
         <v>3414</v>
       </c>
@@ -10077,7 +14766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A186" s="8">
         <v>3415</v>
       </c>
@@ -10118,7 +14807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" ht="16.5" customHeight="1">
       <c r="A187" s="8">
         <v>3416</v>
       </c>
@@ -10159,7 +14848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A188" s="8">
         <v>3417</v>
       </c>
@@ -10200,7 +14889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A189" s="8">
         <v>3418</v>
       </c>
@@ -10241,7 +14930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="16.5" customHeight="1">
       <c r="A190" s="8">
         <v>3419</v>
       </c>
@@ -10282,7 +14971,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A191" s="8">
         <v>3420</v>
       </c>
@@ -10323,7 +15012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A192" s="8">
         <v>3421</v>
       </c>
@@ -10364,7 +15053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="16.5" customHeight="1">
       <c r="A193" s="8">
         <v>3422</v>
       </c>
@@ -10405,7 +15094,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A194" s="8">
         <v>3423</v>
       </c>
@@ -10446,7 +15135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A195" s="8">
         <v>3424</v>
       </c>
@@ -10487,7 +15176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="16.5" customHeight="1">
       <c r="A196" s="8">
         <v>3425</v>
       </c>
@@ -10528,7 +15217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A197" s="8">
         <v>3426</v>
       </c>
@@ -10569,7 +15258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A198" s="8">
         <v>3427</v>
       </c>
@@ -10610,7 +15299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="16.5" customHeight="1">
       <c r="A199" s="8">
         <v>3428</v>
       </c>
@@ -10651,7 +15340,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A200" s="8">
         <v>3429</v>
       </c>
@@ -10692,7 +15381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A201" s="8">
         <v>3430</v>
       </c>
@@ -10733,7 +15422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" ht="16.5" customHeight="1">
       <c r="A202" s="8">
         <v>3431</v>
       </c>
@@ -10774,7 +15463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A203" s="8">
         <v>3432</v>
       </c>
@@ -10815,7 +15504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A204" s="8">
         <v>3433</v>
       </c>
@@ -10856,7 +15545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" ht="16.5" customHeight="1">
       <c r="A205" s="8">
         <v>3434</v>
       </c>
@@ -10897,7 +15586,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A206" s="8">
         <v>3435</v>
       </c>
@@ -10938,7 +15627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A207" s="8">
         <v>3436</v>
       </c>
@@ -10979,7 +15668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" ht="16.5" customHeight="1">
       <c r="A208" s="8">
         <v>3437</v>
       </c>
@@ -11020,7 +15709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A209" s="8">
         <v>3438</v>
       </c>
@@ -11061,7 +15750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A210" s="8">
         <v>3439</v>
       </c>
@@ -11102,7 +15791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="16.5" customHeight="1">
       <c r="A211" s="8">
         <v>3440</v>
       </c>
@@ -11143,7 +15832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A212" s="8">
         <v>3441</v>
       </c>
@@ -11184,7 +15873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A213" s="8">
         <v>3442</v>
       </c>
@@ -11225,7 +15914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" ht="16.5" customHeight="1">
       <c r="A214" s="8">
         <v>3443</v>
       </c>
@@ -11266,7 +15955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A215" s="8">
         <v>3444</v>
       </c>
@@ -11307,7 +15996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A216" s="8">
         <v>3445</v>
       </c>
@@ -11348,7 +16037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="16.5" customHeight="1">
       <c r="A217" s="8">
         <v>3446</v>
       </c>
@@ -11389,7 +16078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A218" s="8">
         <v>3447</v>
       </c>
@@ -11430,7 +16119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A219" s="8">
         <v>3448</v>
       </c>
@@ -11471,7 +16160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" ht="16.5" customHeight="1">
       <c r="A220" s="8">
         <v>3449</v>
       </c>
@@ -11512,7 +16201,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A221" s="8">
         <v>3450</v>
       </c>
@@ -11553,7 +16242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A222" s="8">
         <v>3451</v>
       </c>
@@ -11594,7 +16283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" ht="16.5" customHeight="1">
       <c r="A223" s="8">
         <v>3452</v>
       </c>
@@ -11635,7 +16324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A224" s="8">
         <v>3453</v>
       </c>
@@ -11676,7 +16365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A225" s="8">
         <v>3454</v>
       </c>
@@ -11717,7 +16406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" ht="16.5" customHeight="1">
       <c r="A226" s="8">
         <v>3455</v>
       </c>
@@ -11758,7 +16447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A227" s="8">
         <v>3456</v>
       </c>
@@ -11799,7 +16488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A228" s="8">
         <v>3457</v>
       </c>
@@ -11840,7 +16529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="16.5" customHeight="1">
       <c r="A229" s="8">
         <v>3458</v>
       </c>
@@ -11881,7 +16570,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A230" s="8">
         <v>3459</v>
       </c>
@@ -11922,7 +16611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A231" s="8">
         <v>3460</v>
       </c>
@@ -11963,7 +16652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" ht="16.5" customHeight="1">
       <c r="A232" s="8">
         <v>3461</v>
       </c>
@@ -12004,7 +16693,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A233" s="8">
         <v>3462</v>
       </c>
@@ -12045,7 +16734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A234" s="8">
         <v>3463</v>
       </c>
@@ -12086,7 +16775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" ht="16.5" customHeight="1">
       <c r="A235" s="8">
         <v>3464</v>
       </c>
@@ -12127,7 +16816,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A236" s="8">
         <v>3465</v>
       </c>
@@ -12168,7 +16857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A237" s="8">
         <v>3466</v>
       </c>
@@ -12209,7 +16898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" ht="16.5" customHeight="1">
       <c r="A238" s="8">
         <v>3467</v>
       </c>
@@ -12250,7 +16939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A239" s="8">
         <v>3468</v>
       </c>
@@ -12291,7 +16980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A240" s="8">
         <v>3469</v>
       </c>
@@ -12332,7 +17021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" ht="16.5" customHeight="1">
       <c r="A241" s="8">
         <v>3470</v>
       </c>
@@ -12373,7 +17062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A242" s="8">
         <v>3471</v>
       </c>
@@ -12414,7 +17103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A243" s="8">
         <v>3472</v>
       </c>
@@ -12455,7 +17144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" ht="16.5" customHeight="1">
       <c r="A244" s="8">
         <v>3473</v>
       </c>
@@ -12496,7 +17185,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A245" s="8">
         <v>3474</v>
       </c>
@@ -12537,7 +17226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A246" s="8">
         <v>3475</v>
       </c>
@@ -12578,7 +17267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" ht="16.5" customHeight="1">
       <c r="A247" s="8">
         <v>3476</v>
       </c>
@@ -12619,7 +17308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A248" s="8">
         <v>3477</v>
       </c>
@@ -12660,7 +17349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A249" s="8">
         <v>3478</v>
       </c>
@@ -12701,7 +17390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" ht="16.5" customHeight="1">
       <c r="A250" s="8">
         <v>3479</v>
       </c>
@@ -12742,7 +17431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A251" s="8">
         <v>3480</v>
       </c>
@@ -12783,7 +17472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A252" s="8">
         <v>3481</v>
       </c>
@@ -12824,7 +17513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" ht="16.5" customHeight="1">
       <c r="A253" s="8">
         <v>3482</v>
       </c>
@@ -12865,7 +17554,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A254" s="8">
         <v>3483</v>
       </c>
@@ -12906,7 +17595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A255" s="8">
         <v>3484</v>
       </c>
@@ -12947,7 +17636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" ht="16.5" customHeight="1">
       <c r="A256" s="8">
         <v>3485</v>
       </c>
@@ -12988,7 +17677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A257" s="8">
         <v>3486</v>
       </c>
@@ -13029,7 +17718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" ht="16.5" customHeight="1">
       <c r="A258" s="8">
         <v>3487</v>
       </c>
@@ -13070,7 +17759,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A259" s="8">
         <v>3488</v>
       </c>
@@ -13111,7 +17800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A260" s="8">
         <v>3489</v>
       </c>
@@ -13152,7 +17841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" ht="16.5" customHeight="1">
       <c r="A261" s="8">
         <v>3490</v>
       </c>
@@ -13193,7 +17882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A262" s="8">
         <v>3491</v>
       </c>
@@ -13234,7 +17923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A263" s="8">
         <v>3492</v>
       </c>
@@ -13275,7 +17964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" ht="16.5" customHeight="1">
       <c r="A264" s="8">
         <v>3493</v>
       </c>
@@ -13316,7 +18005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A265" s="8">
         <v>3494</v>
       </c>
@@ -13357,7 +18046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A266" s="8">
         <v>3495</v>
       </c>
@@ -13398,7 +18087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" ht="16.5" customHeight="1">
       <c r="A267" s="8">
         <v>3496</v>
       </c>
@@ -13439,7 +18128,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A268" s="8">
         <v>3497</v>
       </c>
@@ -13480,7 +18169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A269" s="8">
         <v>3498</v>
       </c>
@@ -13521,7 +18210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" ht="16.5" customHeight="1">
       <c r="A270" s="8">
         <v>3499</v>
       </c>
@@ -13562,7 +18251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A271" s="8">
         <v>3500</v>
       </c>
@@ -13603,7 +18292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A272" s="8">
         <v>3501</v>
       </c>
@@ -13644,7 +18333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" ht="16.5" customHeight="1">
       <c r="A273" s="8">
         <v>3502</v>
       </c>
@@ -13685,7 +18374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A274" s="8">
         <v>3503</v>
       </c>
@@ -13726,7 +18415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A275" s="8">
         <v>3504</v>
       </c>
@@ -13767,7 +18456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" ht="16.5" customHeight="1">
       <c r="A276" s="8">
         <v>3505</v>
       </c>
@@ -13808,7 +18497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A277" s="8">
         <v>3506</v>
       </c>
@@ -13849,7 +18538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A278" s="8">
         <v>3507</v>
       </c>
@@ -13890,7 +18579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" ht="16.5" customHeight="1">
       <c r="A279" s="8">
         <v>3508</v>
       </c>
@@ -13931,7 +18620,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A280" s="8">
         <v>3509</v>
       </c>
@@ -13972,7 +18661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A281" s="8">
         <v>3510</v>
       </c>
@@ -14013,7 +18702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" ht="16.5" customHeight="1">
       <c r="A282" s="8">
         <v>3511</v>
       </c>
@@ -14054,7 +18743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A283" s="8">
         <v>3512</v>
       </c>
@@ -14095,7 +18784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A284" s="8">
         <v>3513</v>
       </c>
@@ -14136,7 +18825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" ht="16.5" customHeight="1">
       <c r="A285" s="8">
         <v>3514</v>
       </c>
@@ -14177,7 +18866,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A286" s="8">
         <v>3515</v>
       </c>
@@ -14218,7 +18907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A287" s="8">
         <v>3516</v>
       </c>
@@ -14259,7 +18948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" ht="16.5" customHeight="1">
       <c r="A288" s="8">
         <v>3517</v>
       </c>
@@ -14300,7 +18989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A289" s="8">
         <v>3518</v>
       </c>
@@ -14341,7 +19030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A290" s="8">
         <v>3519</v>
       </c>
@@ -14382,7 +19071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" ht="16.5" customHeight="1">
       <c r="A291" s="8">
         <v>3520</v>
       </c>
@@ -14423,7 +19112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A292" s="8">
         <v>3521</v>
       </c>
@@ -14464,7 +19153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A293" s="8">
         <v>3522</v>
       </c>
@@ -14505,7 +19194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" ht="16.5" customHeight="1">
       <c r="A294" s="8">
         <v>3523</v>
       </c>
@@ -14546,7 +19235,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A295" s="8">
         <v>3524</v>
       </c>
@@ -14587,7 +19276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A296" s="8">
         <v>3525</v>
       </c>
@@ -14642,29 +19331,93 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" customWidth="1"/>
+    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.375" customWidth="1"/>
+    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="6" spans="2:6" ht="15">
+      <c r="B6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15">
+      <c r="B7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1754</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14676,25 +19429,45 @@
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="39" customHeight="1"/>
+    <row r="3" ht="8.25" customHeight="1"/>
+    <row r="4" ht="7.5" customHeight="1"/>
+    <row r="5" ht="10.5" customHeight="1"/>
+    <row r="6" ht="9.75" customHeight="1"/>
+    <row r="7" ht="33" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -14949,34 +19722,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dashboard_xbox_sales.xlsx
+++ b/dashboard_xbox_sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DIO\DIO-Vendas-do-Xbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29AF995-3DE6-40D8-8A20-7AC5533F482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D732D19-83D6-4C11-BA2F-CB1366E4BFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,22 @@
     <sheet name="C̳álculos" sheetId="3" r:id="rId3"/>
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaçãodeDados_Subscription_Type">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -33,8 +44,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="320">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -1089,15 +1098,18 @@
   <si>
     <t>Total Geral</t>
   </si>
+  <si>
+    <t>XBOX GAME PASS SUBSCRITIONS SALES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,6 +1153,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF2AE6B1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1198,7 +1217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1215,6 +1234,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF22C55E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1222,7 +1250,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1252,6 +1280,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -1259,7 +1288,66 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2AE6B1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1309,30 +1397,2740 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{14279B14-3B4E-4DF9-8110-D0080E74140C}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF2AE6B1"/>
+      <color rgb="FF5BF6A8"/>
       <color rgb="FF22C55E"/>
       <color rgb="FFE8E6E9"/>
-      <color rgb="FF5BF6A8"/>
       <color rgb="FF000000"/>
       <color rgb="FFE0E0E0"/>
       <color rgb="FFEDEDED"/>
       <color rgb="FFF7F8FC"/>
-      <color rgb="FF2AE6B1"/>
       <color rgb="FF9BC848"/>
       <color rgb="FFE70011"/>
     </mruColors>
   </colors>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
+      <x14:dxfs count="32">
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.79998168889431442"/>
+              <bgColor theme="9" tint="0.79998168889431442"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.59999389629810485"/>
+              <bgColor theme="9" tint="0.59999389629810485"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFE0E0E0"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFE0E0E0"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFE0E0E0"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFE0E0E0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.79998168889431442"/>
+              <bgColor theme="9" tint="0.79998168889431442"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.59999389629810485"/>
+              <bgColor theme="9" tint="0.59999389629810485"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFE0E0E0"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFE0E0E0"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFE0E0E0"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFE0E0E0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.79998168889431442"/>
+              <bgColor theme="9" tint="0.79998168889431442"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.59999389629810485"/>
+              <bgColor theme="9" tint="0.59999389629810485"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFE0E0E0"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFE0E0E0"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFE0E0E0"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFE0E0E0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.79998168889431442"/>
+              <bgColor theme="9" tint="0.79998168889431442"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.59999389629810485"/>
+              <bgColor theme="9" tint="0.59999389629810485"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFE0E0E0"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFE0E0E0"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFE0E0E0"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFE0E0E0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+      </x14:dxfs>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
+        <x14:slicerStyle name="SlicerStyleLight6 2">
+          <x14:slicerStyleElements>
+            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="7"/>
+            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="6"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="5"/>
+            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="4"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="3"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="2"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="1"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="0"/>
+          </x14:slicerStyleElements>
+        </x14:slicerStyle>
+      </x14:slicerStyles>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[dashboard_xbox_sales.xlsx]C̳álculos!Tabela dinâmica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="5BF6A8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="5BF6A8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>C̳álculos!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5BF6A8"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>C̳álculos!$B$13:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>C̳álculos!$C$13:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE7C-4E69-8EEE-96FA5565D736}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="136401296"/>
+        <c:axId val="136399216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="136401296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136399216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="136399216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136401296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[dashboard_xbox_sales.xlsx]C̳álculos!Tabela dinâmica1</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="5BF6A8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="5BF6A8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="5BF6A8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="5BF6A8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>C̳álculos!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5BF6A8"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>C̳álculos!$B$13:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>C̳álculos!$C$13:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD02-49A8-985C-B4A6592C8EC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="136401296"/>
+        <c:axId val="136399216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="136401296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136399216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="136399216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136401296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2072,6 +4870,363 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1014412</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1452562</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C31DBE3-FCBE-42E1-B232-172825399995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Subscription Type">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E0DF54-F4DF-4AAB-9E6D-6E9939F7FA9F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Subscription Type"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6105525" y="2295525"/>
+              <a:ext cx="2076450" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1262062</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>261936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C860A6-1DE0-43E6-8AE9-A1A17B283A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6560" t="17103" r="71574" b="19371"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="547687" y="321467"/>
+          <a:ext cx="714375" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Agrupar 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68C129F-59AF-49AD-963B-B801145A6497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2583657" y="1393031"/>
+          <a:ext cx="5048249" cy="3083719"/>
+          <a:chOff x="5143500" y="1785937"/>
+          <a:chExt cx="5048250" cy="3083719"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Retângulo: Cantos Arredondados 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32857F68-3BAC-436F-ABF4-EF65D0C690B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5143500" y="1785937"/>
+            <a:ext cx="5048250" cy="3083719"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 4698"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Gráfico 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5758FA93-B434-4E32-8E8D-84DEFAE385CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5405436" y="1952626"/>
+          <a:ext cx="4572001" cy="2743200"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>78582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2076450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Subscription Type 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7399B383-BBED-459C-A26C-000F288422D8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Subscription Type 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1459707"/>
+              <a:ext cx="2076450" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2130,7 +5285,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1162036948"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -6567,7 +9722,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EC8D6D2-BFCC-48E6-989A-4B46A9CE0253}" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EC8D6D2-BFCC-48E6-989A-4B46A9CE0253}" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B12:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -6615,16 +9770,48 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
+    <pageField fld="6" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -6637,8 +9824,37 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Subscription_Type" xr10:uid="{0D8AF5E2-2E6B-4BB8-BAC2-37FA7F95A8FD}" sourceName="Subscription Type">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1162036948">
+      <items count="3">
+        <i x="1"/>
+        <i x="0"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Subscription Type" xr10:uid="{2577FA2C-726B-4A41-A454-37E836B311B6}" cache="SegmentaçãodeDados_Subscription_Type" caption="Subscription Type" style="SlicerStyleLight6" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Subscription Type 1" xr10:uid="{FF8009D7-D4F7-449F-BFC9-CD4FABB74537}" cache="SegmentaçãodeDados_Subscription_Type" caption="Subscription Type" style="SlicerStyleLight6 2" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="26">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
     <filterColumn colId="7">
       <filters>
@@ -6647,19 +9863,19 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="9" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="6" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="20" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="17" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="15" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="14" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="13" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6988,7 +10204,7 @@
   <dimension ref="B3:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -19333,8 +22549,8 @@
   </sheetPr>
   <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -19377,7 +22593,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -19393,7 +22609,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="15">
-        <v>217</v>
+        <v>806</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -19401,7 +22617,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>1537</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -19409,7 +22625,7 @@
         <v>318</v>
       </c>
       <c r="C15" s="15">
-        <v>1754</v>
+        <v>2308</v>
       </c>
     </row>
   </sheetData>
@@ -19418,32 +22634,556 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
-  <dimension ref="A2:A7"/>
+  <dimension ref="A2:Q168"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="28" style="5" customWidth="1"/>
     <col min="2" max="2" width="3.625" customWidth="1"/>
     <col min="12" max="12" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="39" customHeight="1"/>
-    <row r="3" ht="8.25" customHeight="1"/>
-    <row r="4" ht="7.5" customHeight="1"/>
-    <row r="5" ht="10.5" customHeight="1"/>
-    <row r="6" ht="9.75" customHeight="1"/>
-    <row r="7" ht="33" customHeight="1"/>
+    <row r="2" spans="1:17" ht="39" customHeight="1" thickBot="1">
+      <c r="C2" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="1:17" ht="39" customHeight="1" thickTop="1"/>
+    <row r="4" spans="1:17" s="7" customFormat="1" ht="8.25" customHeight="1">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" s="7" customFormat="1" ht="7.5" customHeight="1">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" s="7" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" s="7" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" s="7" customFormat="1" ht="33" customHeight="1">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" s="7" customFormat="1">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" s="7" customFormat="1">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" s="7" customFormat="1">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" s="7" customFormat="1">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" s="7" customFormat="1">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" s="7" customFormat="1">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" s="7" customFormat="1">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" s="7" customFormat="1">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" s="7" customFormat="1">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" s="7" customFormat="1">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" s="7" customFormat="1">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" s="7" customFormat="1">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" s="7" customFormat="1">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" s="7" customFormat="1">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" s="7" customFormat="1">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" s="7" customFormat="1">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" s="7" customFormat="1">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" s="7" customFormat="1">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" s="7" customFormat="1">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1" s="7" customFormat="1">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1" s="7" customFormat="1">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1" s="7" customFormat="1">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:1" s="7" customFormat="1">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:1" s="7" customFormat="1">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" s="7" customFormat="1">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" s="7" customFormat="1">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1" s="7" customFormat="1">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1" s="7" customFormat="1">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:1" s="7" customFormat="1">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:1" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:1" s="7" customFormat="1">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:1" s="7" customFormat="1">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:1" s="7" customFormat="1">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:1" s="7" customFormat="1">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:1" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:1" s="7" customFormat="1">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:1" s="7" customFormat="1">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:1" s="7" customFormat="1">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:1" s="7" customFormat="1">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:1" s="7" customFormat="1">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:1" s="7" customFormat="1">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1" s="7" customFormat="1">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:1" s="7" customFormat="1">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:1" s="7" customFormat="1">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:1" s="7" customFormat="1">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:1" s="7" customFormat="1">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:1" s="7" customFormat="1">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:1" s="7" customFormat="1">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:1" s="7" customFormat="1">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="58" spans="1:1" s="7" customFormat="1">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" spans="1:1" s="7" customFormat="1">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:1" s="7" customFormat="1">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:1" s="7" customFormat="1">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:1" s="7" customFormat="1">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" spans="1:1" s="7" customFormat="1">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:1" s="7" customFormat="1">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" spans="1:1" s="7" customFormat="1">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" spans="1:1" s="7" customFormat="1">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" spans="1:1" s="7" customFormat="1">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:1" s="7" customFormat="1">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" spans="1:1" s="7" customFormat="1">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:1" s="7" customFormat="1">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:1" s="7" customFormat="1">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:1" s="7" customFormat="1">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" spans="1:1" s="7" customFormat="1">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:1" s="7" customFormat="1">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:1" s="7" customFormat="1">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:1" s="7" customFormat="1">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" spans="1:1" s="7" customFormat="1">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="78" spans="1:1" s="7" customFormat="1">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:1" s="7" customFormat="1">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:1" s="7" customFormat="1">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" spans="1:1" s="7" customFormat="1">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="82" spans="1:1" s="7" customFormat="1">
+      <c r="A82" s="5"/>
+    </row>
+    <row r="83" spans="1:1" s="7" customFormat="1">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="84" spans="1:1" s="7" customFormat="1">
+      <c r="A84" s="5"/>
+    </row>
+    <row r="85" spans="1:1" s="7" customFormat="1">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:1" s="7" customFormat="1">
+      <c r="A86" s="5"/>
+    </row>
+    <row r="87" spans="1:1" s="7" customFormat="1">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" spans="1:1" s="7" customFormat="1">
+      <c r="A88" s="5"/>
+    </row>
+    <row r="89" spans="1:1" s="7" customFormat="1">
+      <c r="A89" s="5"/>
+    </row>
+    <row r="90" spans="1:1" s="7" customFormat="1">
+      <c r="A90" s="5"/>
+    </row>
+    <row r="91" spans="1:1" s="7" customFormat="1">
+      <c r="A91" s="5"/>
+    </row>
+    <row r="92" spans="1:1" s="7" customFormat="1">
+      <c r="A92" s="5"/>
+    </row>
+    <row r="93" spans="1:1" s="7" customFormat="1">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="94" spans="1:1" s="7" customFormat="1">
+      <c r="A94" s="5"/>
+    </row>
+    <row r="95" spans="1:1" s="7" customFormat="1">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="96" spans="1:1" s="7" customFormat="1">
+      <c r="A96" s="5"/>
+    </row>
+    <row r="97" spans="1:1" s="7" customFormat="1">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="98" spans="1:1" s="7" customFormat="1">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" spans="1:1" s="7" customFormat="1">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" spans="1:1" s="7" customFormat="1">
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" spans="1:1" s="7" customFormat="1">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="102" spans="1:1" s="7" customFormat="1">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" spans="1:1" s="7" customFormat="1">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="104" spans="1:1" s="7" customFormat="1">
+      <c r="A104" s="5"/>
+    </row>
+    <row r="105" spans="1:1" s="7" customFormat="1">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="106" spans="1:1" s="7" customFormat="1">
+      <c r="A106" s="5"/>
+    </row>
+    <row r="107" spans="1:1" s="7" customFormat="1">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="108" spans="1:1" s="7" customFormat="1">
+      <c r="A108" s="5"/>
+    </row>
+    <row r="109" spans="1:1" s="7" customFormat="1">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="110" spans="1:1" s="7" customFormat="1">
+      <c r="A110" s="5"/>
+    </row>
+    <row r="111" spans="1:1" s="7" customFormat="1">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="112" spans="1:1" s="7" customFormat="1">
+      <c r="A112" s="5"/>
+    </row>
+    <row r="113" spans="1:1" s="7" customFormat="1">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="114" spans="1:1" s="7" customFormat="1">
+      <c r="A114" s="5"/>
+    </row>
+    <row r="115" spans="1:1" s="7" customFormat="1">
+      <c r="A115" s="5"/>
+    </row>
+    <row r="116" spans="1:1" s="7" customFormat="1">
+      <c r="A116" s="5"/>
+    </row>
+    <row r="117" spans="1:1" s="7" customFormat="1">
+      <c r="A117" s="5"/>
+    </row>
+    <row r="118" spans="1:1" s="7" customFormat="1">
+      <c r="A118" s="5"/>
+    </row>
+    <row r="119" spans="1:1" s="7" customFormat="1">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="120" spans="1:1" s="7" customFormat="1">
+      <c r="A120" s="5"/>
+    </row>
+    <row r="121" spans="1:1" s="7" customFormat="1">
+      <c r="A121" s="5"/>
+    </row>
+    <row r="122" spans="1:1" s="7" customFormat="1">
+      <c r="A122" s="5"/>
+    </row>
+    <row r="123" spans="1:1" s="7" customFormat="1">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="124" spans="1:1" s="7" customFormat="1">
+      <c r="A124" s="5"/>
+    </row>
+    <row r="125" spans="1:1" s="7" customFormat="1">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="126" spans="1:1" s="7" customFormat="1">
+      <c r="A126" s="5"/>
+    </row>
+    <row r="127" spans="1:1" s="7" customFormat="1">
+      <c r="A127" s="5"/>
+    </row>
+    <row r="128" spans="1:1" s="7" customFormat="1">
+      <c r="A128" s="5"/>
+    </row>
+    <row r="129" spans="1:1" s="7" customFormat="1">
+      <c r="A129" s="5"/>
+    </row>
+    <row r="130" spans="1:1" s="7" customFormat="1">
+      <c r="A130" s="5"/>
+    </row>
+    <row r="131" spans="1:1" s="7" customFormat="1">
+      <c r="A131" s="5"/>
+    </row>
+    <row r="132" spans="1:1" s="7" customFormat="1">
+      <c r="A132" s="5"/>
+    </row>
+    <row r="133" spans="1:1" s="7" customFormat="1">
+      <c r="A133" s="5"/>
+    </row>
+    <row r="134" spans="1:1" s="7" customFormat="1">
+      <c r="A134" s="5"/>
+    </row>
+    <row r="135" spans="1:1" s="7" customFormat="1">
+      <c r="A135" s="5"/>
+    </row>
+    <row r="136" spans="1:1" s="7" customFormat="1">
+      <c r="A136" s="5"/>
+    </row>
+    <row r="137" spans="1:1" s="7" customFormat="1">
+      <c r="A137" s="5"/>
+    </row>
+    <row r="138" spans="1:1" s="7" customFormat="1">
+      <c r="A138" s="5"/>
+    </row>
+    <row r="139" spans="1:1" s="7" customFormat="1">
+      <c r="A139" s="5"/>
+    </row>
+    <row r="140" spans="1:1" s="7" customFormat="1">
+      <c r="A140" s="5"/>
+    </row>
+    <row r="141" spans="1:1" s="7" customFormat="1">
+      <c r="A141" s="5"/>
+    </row>
+    <row r="142" spans="1:1" s="7" customFormat="1">
+      <c r="A142" s="5"/>
+    </row>
+    <row r="143" spans="1:1" s="7" customFormat="1">
+      <c r="A143" s="5"/>
+    </row>
+    <row r="144" spans="1:1" s="7" customFormat="1">
+      <c r="A144" s="5"/>
+    </row>
+    <row r="145" spans="1:1" s="7" customFormat="1">
+      <c r="A145" s="5"/>
+    </row>
+    <row r="146" spans="1:1" s="7" customFormat="1">
+      <c r="A146" s="5"/>
+    </row>
+    <row r="147" spans="1:1" s="7" customFormat="1">
+      <c r="A147" s="5"/>
+    </row>
+    <row r="148" spans="1:1" s="7" customFormat="1">
+      <c r="A148" s="5"/>
+    </row>
+    <row r="149" spans="1:1" s="7" customFormat="1">
+      <c r="A149" s="5"/>
+    </row>
+    <row r="150" spans="1:1" s="7" customFormat="1">
+      <c r="A150" s="5"/>
+    </row>
+    <row r="151" spans="1:1" s="7" customFormat="1">
+      <c r="A151" s="5"/>
+    </row>
+    <row r="152" spans="1:1" s="7" customFormat="1">
+      <c r="A152" s="5"/>
+    </row>
+    <row r="153" spans="1:1" s="7" customFormat="1">
+      <c r="A153" s="5"/>
+    </row>
+    <row r="154" spans="1:1" s="7" customFormat="1">
+      <c r="A154" s="5"/>
+    </row>
+    <row r="155" spans="1:1" s="7" customFormat="1">
+      <c r="A155" s="5"/>
+    </row>
+    <row r="156" spans="1:1" s="7" customFormat="1">
+      <c r="A156" s="5"/>
+    </row>
+    <row r="157" spans="1:1" s="7" customFormat="1">
+      <c r="A157" s="5"/>
+    </row>
+    <row r="158" spans="1:1" s="7" customFormat="1">
+      <c r="A158" s="5"/>
+    </row>
+    <row r="159" spans="1:1" s="7" customFormat="1">
+      <c r="A159" s="5"/>
+    </row>
+    <row r="160" spans="1:1" s="7" customFormat="1">
+      <c r="A160" s="5"/>
+    </row>
+    <row r="161" spans="1:1" s="7" customFormat="1">
+      <c r="A161" s="5"/>
+    </row>
+    <row r="162" spans="1:1" s="7" customFormat="1">
+      <c r="A162" s="5"/>
+    </row>
+    <row r="163" spans="1:1" s="7" customFormat="1">
+      <c r="A163" s="5"/>
+    </row>
+    <row r="164" spans="1:1" s="7" customFormat="1">
+      <c r="A164" s="5"/>
+    </row>
+    <row r="165" spans="1:1" s="7" customFormat="1">
+      <c r="A165" s="5"/>
+    </row>
+    <row r="166" spans="1:1" s="7" customFormat="1">
+      <c r="A166" s="5"/>
+    </row>
+    <row r="167" spans="1:1" s="7" customFormat="1">
+      <c r="A167" s="5"/>
+    </row>
+    <row r="168" spans="1:1" s="7" customFormat="1">
+      <c r="A168" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/dashboard_xbox_sales.xlsx
+++ b/dashboard_xbox_sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DIO\DIO-Vendas-do-Xbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D732D19-83D6-4C11-BA2F-CB1366E4BFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48979E7-6DE4-4007-99E1-2862375048C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="322">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -1100,6 +1100,12 @@
   </si>
   <si>
     <t>XBOX GAME PASS SUBSCRITIONS SALES</t>
+  </si>
+  <si>
+    <t>Pergunta Negócio 3 - Total de Vendas de Assinaturas do EA Play</t>
+  </si>
+  <si>
+    <t>Soma de EA Play Season Pass</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1294,70 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="46">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1320,12 +1389,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1399,8 +1462,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{14279B14-3B4E-4DF9-8110-D0080E74140C}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2387,273 +2450,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[dashboard_xbox_sales.xlsx]C̳álculos!Tabela dinâmica1</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:srgbClr val="5BF6A8"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:srgbClr val="5BF6A8"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>C̳álculos!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5BF6A8"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>C̳álculos!$B$13:$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>No</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>C̳álculos!$C$13:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1502</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CE7C-4E69-8EEE-96FA5565D736}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="136401296"/>
-        <c:axId val="136399216"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="136401296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136399216"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="136399216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136401296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[dashboard_xbox_sales.xlsx]C̳álculos!Tabela dinâmica1</c:name>
+    <c:name>[dashboard_xbox_sales.xlsx]C̳álculos!Tbl_annual_total</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -3083,552 +2880,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4870,120 +4122,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1014412</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1452562</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C31DBE3-FCBE-42E1-B232-172825399995}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Subscription Type">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E0DF54-F4DF-4AAB-9E6D-6E9939F7FA9F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Subscription Type"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6105525" y="2295525"/>
-              <a:ext cx="2076450" cy="2524125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="pt-BR" sz="1100"/>
-                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
-\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5041,15 +4179,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>178594</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>392906</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5064,7 +4202,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2583657" y="1393031"/>
+          <a:off x="2500314" y="3190874"/>
           <a:ext cx="5048249" cy="3083719"/>
           <a:chOff x="5143500" y="1785937"/>
           <a:chExt cx="5048250" cy="3083719"/>
@@ -5227,6 +4365,152 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC3131C-F3DD-4AC5-9374-FCE140C169BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2500313" y="1440656"/>
+          <a:ext cx="5048249" cy="1607344"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6990"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45244</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="C̳álculos!F28">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Retângulo: Cantos Arredondados 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5B54D8-4541-40B8-924B-DFED99970C4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3140869" y="1747837"/>
+          <a:ext cx="3443287" cy="1109663"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6990"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="2AE6B1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{D0EB33DE-486F-47AA-ABAD-F57EADDF9C11}" type="TxLink">
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>990</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5243,7 +4527,11 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Plan" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="3">
+        <s v="Ultimate"/>
+        <s v="Core"/>
+        <s v="Standard"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Start Date" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-01T00:00:00" maxDate="2024-12-17T00:00:00"/>
@@ -5296,7 +4584,7 @@
   <r>
     <n v="3231"/>
     <s v="João Silva"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-01-01T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -5311,7 +4599,7 @@
   <r>
     <n v="3232"/>
     <s v="Maria Oliveira"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-01-15T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -5326,7 +4614,7 @@
   <r>
     <n v="3233"/>
     <s v="Lucas Fernandes"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-02-10T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -5341,7 +4629,7 @@
   <r>
     <n v="3234"/>
     <s v="Ana Souza"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-02-20T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -5356,7 +4644,7 @@
   <r>
     <n v="3235"/>
     <s v="Pedro Gonçalves"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-05T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -5371,7 +4659,7 @@
   <r>
     <n v="3236"/>
     <s v="Felipe Costa"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-02T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -5386,7 +4674,7 @@
   <r>
     <n v="3237"/>
     <s v="Camila Ribeiro"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-03T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -5401,7 +4689,7 @@
   <r>
     <n v="3238"/>
     <s v="André Mendes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-04T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -5416,7 +4704,7 @@
   <r>
     <n v="3239"/>
     <s v="Sofia Almeida"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-05T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -5431,7 +4719,7 @@
   <r>
     <n v="3240"/>
     <s v="Bruno Martins"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-06T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -5446,7 +4734,7 @@
   <r>
     <n v="3241"/>
     <s v="Rita Castro"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-07T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -5461,7 +4749,7 @@
   <r>
     <n v="3242"/>
     <s v="Marco Túlio"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-08T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -5476,7 +4764,7 @@
   <r>
     <n v="3243"/>
     <s v="Lívia Silveira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-09T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -5491,7 +4779,7 @@
   <r>
     <n v="3244"/>
     <s v="Diogo Sousa"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-10T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -5506,7 +4794,7 @@
   <r>
     <n v="3245"/>
     <s v="Fernanda Lima"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-11T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -5521,7 +4809,7 @@
   <r>
     <n v="3246"/>
     <s v="Caio Pereira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-12T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -5536,7 +4824,7 @@
   <r>
     <n v="3247"/>
     <s v="Beatriz Gomes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-13T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -5551,7 +4839,7 @@
   <r>
     <n v="3248"/>
     <s v="Cesar Oliveira"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-14T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -5566,7 +4854,7 @@
   <r>
     <n v="3249"/>
     <s v="Débora Machado"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-15T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -5581,7 +4869,7 @@
   <r>
     <n v="3250"/>
     <s v="Eduardo Vargas"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-16T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -5596,7 +4884,7 @@
   <r>
     <n v="3251"/>
     <s v="Gabriela Santos"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-17T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -5611,7 +4899,7 @@
   <r>
     <n v="3252"/>
     <s v="Henrique Dias"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-18T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -5626,7 +4914,7 @@
   <r>
     <n v="3253"/>
     <s v="Isabela Moreira"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-19T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -5641,7 +4929,7 @@
   <r>
     <n v="3254"/>
     <s v="Joaquim Barbosa"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-20T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -5656,7 +4944,7 @@
   <r>
     <n v="3255"/>
     <s v="Lara Rocha"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-21T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -5671,7 +4959,7 @@
   <r>
     <n v="3256"/>
     <s v="Matheus Silva"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-22T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -5686,7 +4974,7 @@
   <r>
     <n v="3257"/>
     <s v="Nicole Costa"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-23T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -5701,7 +4989,7 @@
   <r>
     <n v="3258"/>
     <s v="Otávio Mendonça"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-24T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -5716,7 +5004,7 @@
   <r>
     <n v="3259"/>
     <s v="Paula Ferreira"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-25T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -5731,7 +5019,7 @@
   <r>
     <n v="3260"/>
     <s v="Raquel Alves"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-26T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -5746,7 +5034,7 @@
   <r>
     <n v="3261"/>
     <s v="Samuel Pires"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-27T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -5761,7 +5049,7 @@
   <r>
     <n v="3262"/>
     <s v="Tânia Barros"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-28T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -5776,7 +5064,7 @@
   <r>
     <n v="3263"/>
     <s v="Vinicius Lima"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-29T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -5791,7 +5079,7 @@
   <r>
     <n v="3264"/>
     <s v="Yasmin Teixeira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-30T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -5806,7 +5094,7 @@
   <r>
     <n v="3265"/>
     <s v="Zé Carlos"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-31T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -5821,7 +5109,7 @@
   <r>
     <n v="3266"/>
     <s v="Amanda Nogueira"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-01T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -5836,7 +5124,7 @@
   <r>
     <n v="3267"/>
     <s v="Bruno Cavalheiro"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-02T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -5851,7 +5139,7 @@
   <r>
     <n v="3268"/>
     <s v="Carla Dias"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-03T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -5866,7 +5154,7 @@
   <r>
     <n v="3269"/>
     <s v="Diego Fontes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-04T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -5881,7 +5169,7 @@
   <r>
     <n v="3270"/>
     <s v="Eunice Lima"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-05T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -5896,7 +5184,7 @@
   <r>
     <n v="3271"/>
     <s v="Fábio Martins"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-06T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -5911,7 +5199,7 @@
   <r>
     <n v="3272"/>
     <s v="Gisele Araújo"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-07T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -5926,7 +5214,7 @@
   <r>
     <n v="3273"/>
     <s v="Hélio Castro"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-08T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -5941,7 +5229,7 @@
   <r>
     <n v="3274"/>
     <s v="Ingrid Menezes"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-09T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -5956,7 +5244,7 @@
   <r>
     <n v="3275"/>
     <s v="Jorge Baptista"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-10T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -5971,7 +5259,7 @@
   <r>
     <n v="3276"/>
     <s v="Kléber Oliveira"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-11T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -5986,7 +5274,7 @@
   <r>
     <n v="3277"/>
     <s v="Luciana Freitas"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-12T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -6001,7 +5289,7 @@
   <r>
     <n v="3278"/>
     <s v="Márcia Eller"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-13T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -6016,7 +5304,7 @@
   <r>
     <n v="3279"/>
     <s v="Nilo Peçanha"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-14T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -6031,7 +5319,7 @@
   <r>
     <n v="3280"/>
     <s v="Oscar Neves"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-15T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -6046,7 +5334,7 @@
   <r>
     <n v="3281"/>
     <s v="Patrícia Soares"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-16T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -6061,7 +5349,7 @@
   <r>
     <n v="3282"/>
     <s v="Quirino Gonçalves"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-17T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -6076,7 +5364,7 @@
   <r>
     <n v="3283"/>
     <s v="Raul Machado"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-18T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -6091,7 +5379,7 @@
   <r>
     <n v="3284"/>
     <s v="Sônia Lobo"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-19T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -6106,7 +5394,7 @@
   <r>
     <n v="3285"/>
     <s v="Tiago Ramos"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-20T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -6121,7 +5409,7 @@
   <r>
     <n v="3286"/>
     <s v="Ugo Pires"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-21T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -6136,7 +5424,7 @@
   <r>
     <n v="3287"/>
     <s v="Valéria Nobre"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-22T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -6151,7 +5439,7 @@
   <r>
     <n v="3288"/>
     <s v="William Siqueira"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-23T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -6166,7 +5454,7 @@
   <r>
     <n v="3289"/>
     <s v="Xuxa Meneghel"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-24T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -6181,7 +5469,7 @@
   <r>
     <n v="3290"/>
     <s v="Yara Figueiredo"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-25T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -6196,7 +5484,7 @@
   <r>
     <n v="3291"/>
     <s v="Zacarias Alves"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-26T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -6211,7 +5499,7 @@
   <r>
     <n v="3292"/>
     <s v="Amanda Bynes"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-27T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -6226,7 +5514,7 @@
   <r>
     <n v="3293"/>
     <s v="Bruno Mars"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-28T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -6241,7 +5529,7 @@
   <r>
     <n v="3294"/>
     <s v="Carla Bruni"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-29T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -6256,7 +5544,7 @@
   <r>
     <n v="3295"/>
     <s v="Diego Maradona"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-30T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -6271,7 +5559,7 @@
   <r>
     <n v="3296"/>
     <s v="Estela Marques"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-01T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -6286,7 +5574,7 @@
   <r>
     <n v="3297"/>
     <s v="Fábio Nobre"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-02T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -6301,7 +5589,7 @@
   <r>
     <n v="3298"/>
     <s v="Gabriel Oliveira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-03T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -6316,7 +5604,7 @@
   <r>
     <n v="3299"/>
     <s v="Helena Santos"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-04T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -6331,7 +5619,7 @@
   <r>
     <n v="3300"/>
     <s v="Ivan Carvalho"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-05T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -6346,7 +5634,7 @@
   <r>
     <n v="3301"/>
     <s v="Júlia Ferreira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-06T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -6361,7 +5649,7 @@
   <r>
     <n v="3302"/>
     <s v="Karla Alves"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-07T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -6376,7 +5664,7 @@
   <r>
     <n v="3303"/>
     <s v="Lucas Mendes"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-08T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -6391,7 +5679,7 @@
   <r>
     <n v="3304"/>
     <s v="Mônica Gomes"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-09T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -6406,7 +5694,7 @@
   <r>
     <n v="3305"/>
     <s v="Norberto Queiroz"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-10T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -6421,7 +5709,7 @@
   <r>
     <n v="3306"/>
     <s v="Otávio Barros"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-11T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -6436,7 +5724,7 @@
   <r>
     <n v="3307"/>
     <s v="Paula Vieira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-12T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -6451,7 +5739,7 @@
   <r>
     <n v="3308"/>
     <s v="Quentin Ramos"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-13T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -6466,7 +5754,7 @@
   <r>
     <n v="3309"/>
     <s v="Raquel Novaes"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-14T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -6481,7 +5769,7 @@
   <r>
     <n v="3310"/>
     <s v="Samantha Lopes"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-15T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -6496,7 +5784,7 @@
   <r>
     <n v="3311"/>
     <s v="Tiago Martins"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-16T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -6511,7 +5799,7 @@
   <r>
     <n v="3312"/>
     <s v="Ulysses Guimarães"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-17T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -6526,7 +5814,7 @@
   <r>
     <n v="3313"/>
     <s v="Vanessa Silva"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-18T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -6541,7 +5829,7 @@
   <r>
     <n v="3314"/>
     <s v="William Carneiro"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-19T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -6556,7 +5844,7 @@
   <r>
     <n v="3315"/>
     <s v="Ximena Rocha"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-20T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -6571,7 +5859,7 @@
   <r>
     <n v="3316"/>
     <s v="Yasmin Figueiredo"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-21T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -6586,7 +5874,7 @@
   <r>
     <n v="3317"/>
     <s v="Zara Cunha"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-22T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -6601,7 +5889,7 @@
   <r>
     <n v="3318"/>
     <s v="Alan Teixeira"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-23T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -6616,7 +5904,7 @@
   <r>
     <n v="3319"/>
     <s v="Bárbara Oliveira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-24T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -6631,7 +5919,7 @@
   <r>
     <n v="3320"/>
     <s v="Carlos Junqueira"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-25T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -6646,7 +5934,7 @@
   <r>
     <n v="3321"/>
     <s v="Daniela Moura"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-26T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -6661,7 +5949,7 @@
   <r>
     <n v="3322"/>
     <s v="Eduardo Lima"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-27T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -6676,7 +5964,7 @@
   <r>
     <n v="3323"/>
     <s v="Fabiana Araújo"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-28T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -6691,7 +5979,7 @@
   <r>
     <n v="3324"/>
     <s v="Geraldo Ribeiro"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-29T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -6706,7 +5994,7 @@
   <r>
     <n v="3325"/>
     <s v="Héctor Vargas"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-30T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -6721,7 +6009,7 @@
   <r>
     <n v="3326"/>
     <s v="Isabela Fonseca"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-31T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -6736,7 +6024,7 @@
   <r>
     <n v="3327"/>
     <s v="João Pedro Almeida"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-01T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -6751,7 +6039,7 @@
   <r>
     <n v="3328"/>
     <s v="Klara Costa"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-02T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -6766,7 +6054,7 @@
   <r>
     <n v="3329"/>
     <s v="Luciana Mendes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-03T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -6781,7 +6069,7 @@
   <r>
     <n v="3330"/>
     <s v="Marcelo Gouveia"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-04T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -6796,7 +6084,7 @@
   <r>
     <n v="3331"/>
     <s v="Nívea Borges"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-05T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -6811,7 +6099,7 @@
   <r>
     <n v="3332"/>
     <s v="Oscar Nogueira"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-06T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -6826,7 +6114,7 @@
   <r>
     <n v="3333"/>
     <s v="Patrícia Alves"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-07T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -6841,7 +6129,7 @@
   <r>
     <n v="3334"/>
     <s v="Rafaela Silva"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-08T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -6856,7 +6144,7 @@
   <r>
     <n v="3335"/>
     <s v="Samantha Moraes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-09T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -6871,7 +6159,7 @@
   <r>
     <n v="3336"/>
     <s v="Tatiana Rocha"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-10T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -6886,7 +6174,7 @@
   <r>
     <n v="3337"/>
     <s v="Ulisses Tavares"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-11T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -6901,7 +6189,7 @@
   <r>
     <n v="3338"/>
     <s v="Víctor Lemos"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-12T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -6916,7 +6204,7 @@
   <r>
     <n v="3339"/>
     <s v="Wilma Barros"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-13T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -6931,7 +6219,7 @@
   <r>
     <n v="3340"/>
     <s v="Xavier Nascimento"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-14T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -6946,7 +6234,7 @@
   <r>
     <n v="3341"/>
     <s v="Yago Pereira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-15T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -6961,7 +6249,7 @@
   <r>
     <n v="3342"/>
     <s v="Zilda Ferreira"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-16T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -6976,7 +6264,7 @@
   <r>
     <n v="3343"/>
     <s v="Amanda Lopes"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-17T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -6991,7 +6279,7 @@
   <r>
     <n v="3344"/>
     <s v="Bruno Miranda"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-18T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -7006,7 +6294,7 @@
   <r>
     <n v="3345"/>
     <s v="Célia Torres"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-19T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -7021,7 +6309,7 @@
   <r>
     <n v="3346"/>
     <s v="Diogo Souza"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-20T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -7036,7 +6324,7 @@
   <r>
     <n v="3347"/>
     <s v="Elisa Castro"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-21T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -7051,7 +6339,7 @@
   <r>
     <n v="3348"/>
     <s v="Fátima Lima"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-22T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -7066,7 +6354,7 @@
   <r>
     <n v="3349"/>
     <s v="Geraldo Ribeiro"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-23T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -7081,7 +6369,7 @@
   <r>
     <n v="3350"/>
     <s v="Hélio Martins"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-24T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -7096,7 +6384,7 @@
   <r>
     <n v="3351"/>
     <s v="Íris Santos"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-25T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -7111,7 +6399,7 @@
   <r>
     <n v="3352"/>
     <s v="João Marcelo"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-26T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -7126,7 +6414,7 @@
   <r>
     <n v="3353"/>
     <s v="Larissa Gomes"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-27T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -7141,7 +6429,7 @@
   <r>
     <n v="3354"/>
     <s v="Márcio Silva"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-28T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -7156,7 +6444,7 @@
   <r>
     <n v="3355"/>
     <s v="Nadia Costa"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-29T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -7171,7 +6459,7 @@
   <r>
     <n v="3356"/>
     <s v="Oscar Almeida"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-30T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -7186,7 +6474,7 @@
   <r>
     <n v="3357"/>
     <s v="Patricia Soares"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-01T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -7201,7 +6489,7 @@
   <r>
     <n v="3358"/>
     <s v="Quênia Barros"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-02T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -7216,7 +6504,7 @@
   <r>
     <n v="3359"/>
     <s v="Rafael Torres"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-03T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -7231,7 +6519,7 @@
   <r>
     <n v="3360"/>
     <s v="Silvia Nascimento"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-04T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -7246,7 +6534,7 @@
   <r>
     <n v="3361"/>
     <s v="Tiago Mendes"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-05T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -7261,7 +6549,7 @@
   <r>
     <n v="3362"/>
     <s v="Ursula Silva"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-06T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -7276,7 +6564,7 @@
   <r>
     <n v="3363"/>
     <s v="Vanessa Moraes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-07T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -7291,7 +6579,7 @@
   <r>
     <n v="3364"/>
     <s v="Waldir Junior"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-08T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -7306,7 +6594,7 @@
   <r>
     <n v="3365"/>
     <s v="Xavier Lopes"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-09T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -7321,7 +6609,7 @@
   <r>
     <n v="3366"/>
     <s v="Yolanda Freitas"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-10T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -7336,7 +6624,7 @@
   <r>
     <n v="3367"/>
     <s v="Zacarias Nunes"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-11T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -7351,7 +6639,7 @@
   <r>
     <n v="3368"/>
     <s v="Ana Clara Barreto"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-12T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -7366,7 +6654,7 @@
   <r>
     <n v="3369"/>
     <s v="Bruno Henrique"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-13T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -7381,7 +6669,7 @@
   <r>
     <n v="3370"/>
     <s v="Carlos Eduardo"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-14T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -7396,7 +6684,7 @@
   <r>
     <n v="3371"/>
     <s v="Débora Lima"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-15T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -7411,7 +6699,7 @@
   <r>
     <n v="3372"/>
     <s v="Elisa Neves"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-16T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -7426,7 +6714,7 @@
   <r>
     <n v="3373"/>
     <s v="Fabiano Gomes"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-17T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -7441,7 +6729,7 @@
   <r>
     <n v="3374"/>
     <s v="Gisele Oliveira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-18T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -7456,7 +6744,7 @@
   <r>
     <n v="3375"/>
     <s v="Héctor Silva"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-19T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -7471,7 +6759,7 @@
   <r>
     <n v="3376"/>
     <s v="Igor Martins"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-20T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -7486,7 +6774,7 @@
   <r>
     <n v="3377"/>
     <s v="Joana Figueiredo"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-21T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -7501,7 +6789,7 @@
   <r>
     <n v="3378"/>
     <s v="Kleber Machado"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-22T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -7516,7 +6804,7 @@
   <r>
     <n v="3379"/>
     <s v="Luciana Santos"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-23T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -7531,7 +6819,7 @@
   <r>
     <n v="3380"/>
     <s v="Marcos Teixeira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-24T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -7546,7 +6834,7 @@
   <r>
     <n v="3381"/>
     <s v="Natalia Costa"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-25T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -7561,7 +6849,7 @@
   <r>
     <n v="3382"/>
     <s v="Oscar Ribeiro"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-26T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -7576,7 +6864,7 @@
   <r>
     <n v="3383"/>
     <s v="Patricia Almeida"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-27T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -7591,7 +6879,7 @@
   <r>
     <n v="3384"/>
     <s v="Quirino Junior"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-28T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -7606,7 +6894,7 @@
   <r>
     <n v="3385"/>
     <s v="Renata Machado"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-29T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -7621,7 +6909,7 @@
   <r>
     <n v="3386"/>
     <s v="Sônia Alves"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-30T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -7636,7 +6924,7 @@
   <r>
     <n v="3387"/>
     <s v="Tiago Nunes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-31T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -7651,7 +6939,7 @@
   <r>
     <n v="3388"/>
     <s v="Ulysses Pereira"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-01T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -7666,7 +6954,7 @@
   <r>
     <n v="3389"/>
     <s v="Vanessa Lima"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-02T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -7681,7 +6969,7 @@
   <r>
     <n v="3390"/>
     <s v="Wagner Santos"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-03T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -7696,7 +6984,7 @@
   <r>
     <n v="3391"/>
     <s v="Xuxa Meneghel"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-04T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -7711,7 +6999,7 @@
   <r>
     <n v="3392"/>
     <s v="Yasmin Silva"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-05T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -7726,7 +7014,7 @@
   <r>
     <n v="3393"/>
     <s v="Zacarias de Souza"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-06T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -7741,7 +7029,7 @@
   <r>
     <n v="3394"/>
     <s v="André Lima"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-07T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -7756,7 +7044,7 @@
   <r>
     <n v="3395"/>
     <s v="Bianca Freitas"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-08T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -7771,7 +7059,7 @@
   <r>
     <n v="3396"/>
     <s v="Caio Mendes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-09T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -7786,7 +7074,7 @@
   <r>
     <n v="3397"/>
     <s v="Daniela Moura"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-10T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -7801,7 +7089,7 @@
   <r>
     <n v="3398"/>
     <s v="Eduardo Costa"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-11T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -7816,7 +7104,7 @@
   <r>
     <n v="3399"/>
     <s v="Fernanda Gomes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-12T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -7831,7 +7119,7 @@
   <r>
     <n v="3400"/>
     <s v="Guilherme Souza"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-13T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -7846,7 +7134,7 @@
   <r>
     <n v="3401"/>
     <s v="Helena Ribeiro"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-14T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -7861,7 +7149,7 @@
   <r>
     <n v="3402"/>
     <s v="Igor Santos"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-15T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -7876,7 +7164,7 @@
   <r>
     <n v="3403"/>
     <s v="João Carvalho"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-16T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -7891,7 +7179,7 @@
   <r>
     <n v="3404"/>
     <s v="Klara Fagundes"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-17T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -7906,7 +7194,7 @@
   <r>
     <n v="3405"/>
     <s v="Lúcia Mendonça"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-18T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -7921,7 +7209,7 @@
   <r>
     <n v="3406"/>
     <s v="Marcelo Novaes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-19T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -7936,7 +7224,7 @@
   <r>
     <n v="3407"/>
     <s v="Nina Pacheco"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-20T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -7951,7 +7239,7 @@
   <r>
     <n v="3408"/>
     <s v="Olívia Rios"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-21T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -7966,7 +7254,7 @@
   <r>
     <n v="3409"/>
     <s v="Paulo Quintana"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-22T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -7981,7 +7269,7 @@
   <r>
     <n v="3410"/>
     <s v="Raquel Domingos"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-23T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -7996,7 +7284,7 @@
   <r>
     <n v="3411"/>
     <s v="Samuel Viana"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-24T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -8011,7 +7299,7 @@
   <r>
     <n v="3412"/>
     <s v="Tatiane Rocha"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-25T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -8026,7 +7314,7 @@
   <r>
     <n v="3413"/>
     <s v="Ulysses Farias"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-26T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -8041,7 +7329,7 @@
   <r>
     <n v="3414"/>
     <s v="Vanessa Moreira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-27T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -8056,7 +7344,7 @@
   <r>
     <n v="3415"/>
     <s v="William Carvalho"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-28T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -8071,7 +7359,7 @@
   <r>
     <n v="3416"/>
     <s v="Ximena Barros"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-29T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -8086,7 +7374,7 @@
   <r>
     <n v="3417"/>
     <s v="Yara Machado"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-30T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -8101,7 +7389,7 @@
   <r>
     <n v="3418"/>
     <s v="Zacarias Costa"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-31T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -8116,7 +7404,7 @@
   <r>
     <n v="3419"/>
     <s v="André Lopes"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-01T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -8131,7 +7419,7 @@
   <r>
     <n v="3420"/>
     <s v="Beatriz Souza"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-02T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -8146,7 +7434,7 @@
   <r>
     <n v="3421"/>
     <s v="Caio Pereira"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-03T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -8161,7 +7449,7 @@
   <r>
     <n v="3422"/>
     <s v="Daniela Araújo"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-04T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -8176,7 +7464,7 @@
   <r>
     <n v="3423"/>
     <s v="Eduardo Santos"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-05T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -8191,7 +7479,7 @@
   <r>
     <n v="3424"/>
     <s v="Fernanda Lima"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-06T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -8206,7 +7494,7 @@
   <r>
     <n v="3425"/>
     <s v="Gabriel Teixeira"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-07T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -8221,7 +7509,7 @@
   <r>
     <n v="3426"/>
     <s v="Helena Ribeiro"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-08T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -8236,7 +7524,7 @@
   <r>
     <n v="3427"/>
     <s v="Igor Mendes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-09T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -8251,7 +7539,7 @@
   <r>
     <n v="3428"/>
     <s v="Joana Silveira"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-10T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -8266,7 +7554,7 @@
   <r>
     <n v="3429"/>
     <s v="Lucas Martins"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-11T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -8281,7 +7569,7 @@
   <r>
     <n v="3430"/>
     <s v="Marcela Gouveia"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-12T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -8296,7 +7584,7 @@
   <r>
     <n v="3431"/>
     <s v="Nicolas Borges"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-13T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -8311,7 +7599,7 @@
   <r>
     <n v="3432"/>
     <s v="Olivia Freitas"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-14T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -8326,7 +7614,7 @@
   <r>
     <n v="3433"/>
     <s v="Paulo Nogueira"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-15T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -8341,7 +7629,7 @@
   <r>
     <n v="3434"/>
     <s v="Raquel Andrade"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-16T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -8356,7 +7644,7 @@
   <r>
     <n v="3435"/>
     <s v="Sônia Carvalho"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-17T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -8371,7 +7659,7 @@
   <r>
     <n v="3436"/>
     <s v="Tiago Rodrigues"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-18T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -8386,7 +7674,7 @@
   <r>
     <n v="3437"/>
     <s v="Ursula Monteiro"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-19T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -8401,7 +7689,7 @@
   <r>
     <n v="3438"/>
     <s v="Vanessa Pereira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-20T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -8416,7 +7704,7 @@
   <r>
     <n v="3439"/>
     <s v="Walter Silva"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-21T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -8431,7 +7719,7 @@
   <r>
     <n v="3440"/>
     <s v="Xavier Almeida"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-22T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -8446,7 +7734,7 @@
   <r>
     <n v="3441"/>
     <s v="Yasmine Correia"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-23T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -8461,7 +7749,7 @@
   <r>
     <n v="3442"/>
     <s v="Zacarias Almeida"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-24T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -8476,7 +7764,7 @@
   <r>
     <n v="3443"/>
     <s v="Amanda Costa"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-25T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -8491,7 +7779,7 @@
   <r>
     <n v="3444"/>
     <s v="Bruno Ferreira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-26T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -8506,7 +7794,7 @@
   <r>
     <n v="3445"/>
     <s v="Carla Dias"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-27T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -8521,7 +7809,7 @@
   <r>
     <n v="3446"/>
     <s v="Diogo Martins"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-28T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -8536,7 +7824,7 @@
   <r>
     <n v="3447"/>
     <s v="Elisa Campos"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-29T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -8551,7 +7839,7 @@
   <r>
     <n v="3448"/>
     <s v="Fabiana Lima"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-30T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -8566,7 +7854,7 @@
   <r>
     <n v="3449"/>
     <s v="Gabriel Santos"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-01T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -8581,7 +7869,7 @@
   <r>
     <n v="3450"/>
     <s v="Helena Ferreira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-02T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -8596,7 +7884,7 @@
   <r>
     <n v="3451"/>
     <s v="Ígor Nunes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-03T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -8611,7 +7899,7 @@
   <r>
     <n v="3452"/>
     <s v="Joana Silveira"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-04T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -8626,7 +7914,7 @@
   <r>
     <n v="3453"/>
     <s v="Kléber Oliveira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-05T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -8641,7 +7929,7 @@
   <r>
     <n v="3454"/>
     <s v="Luciana Morais"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-06T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -8656,7 +7944,7 @@
   <r>
     <n v="3455"/>
     <s v="Marcos Vinícius"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-07T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -8671,7 +7959,7 @@
   <r>
     <n v="3456"/>
     <s v="Natália Barros"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-08T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -8686,7 +7974,7 @@
   <r>
     <n v="3457"/>
     <s v="Oscar Sampaio"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-09T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -8701,7 +7989,7 @@
   <r>
     <n v="3458"/>
     <s v="Patrícia Leite"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-10T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -8716,7 +8004,7 @@
   <r>
     <n v="3459"/>
     <s v="Quênia Rocha"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-11T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -8731,7 +8019,7 @@
   <r>
     <n v="3460"/>
     <s v="Rafael Torres"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-12T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -8746,7 +8034,7 @@
   <r>
     <n v="3461"/>
     <s v="Sandra Gouveia"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-13T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -8761,7 +8049,7 @@
   <r>
     <n v="3462"/>
     <s v="Tiago Lacerda"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-14T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -8776,7 +8064,7 @@
   <r>
     <n v="3463"/>
     <s v="Ursula Fonseca"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-15T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -8791,7 +8079,7 @@
   <r>
     <n v="3464"/>
     <s v="Vanessa Andrade"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-16T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -8806,7 +8094,7 @@
   <r>
     <n v="3465"/>
     <s v="William Castro"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-17T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -8821,7 +8109,7 @@
   <r>
     <n v="3466"/>
     <s v="Xavier Monteiro"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-18T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -8836,7 +8124,7 @@
   <r>
     <n v="3467"/>
     <s v="Yasmin Figueira"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-19T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -8851,7 +8139,7 @@
   <r>
     <n v="3468"/>
     <s v="Zacarias Mendonça"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-20T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -8866,7 +8154,7 @@
   <r>
     <n v="3469"/>
     <s v="Amanda Menezes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-21T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -8881,7 +8169,7 @@
   <r>
     <n v="3470"/>
     <s v="Bruno Santos"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-22T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -8896,7 +8184,7 @@
   <r>
     <n v="3471"/>
     <s v="Carla Ferreira"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-23T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -8911,7 +8199,7 @@
   <r>
     <n v="3472"/>
     <s v="Diogo Alves"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-24T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -8926,7 +8214,7 @@
   <r>
     <n v="3473"/>
     <s v="Elisa Neves"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-25T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -8941,7 +8229,7 @@
   <r>
     <n v="3474"/>
     <s v="Fabiano Pires"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-26T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -8956,7 +8244,7 @@
   <r>
     <n v="3475"/>
     <s v="Giovana Ribeiro"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-27T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -8971,7 +8259,7 @@
   <r>
     <n v="3476"/>
     <s v="Hélio Costa"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-28T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -8986,7 +8274,7 @@
   <r>
     <n v="3477"/>
     <s v="Íris Loureiro"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-29T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -9001,7 +8289,7 @@
   <r>
     <n v="3478"/>
     <s v="João Pereira"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-30T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -9016,7 +8304,7 @@
   <r>
     <n v="3479"/>
     <s v="Klara Silva"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-31T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -9031,7 +8319,7 @@
   <r>
     <n v="3480"/>
     <s v="Luciana Barros"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-01T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -9046,7 +8334,7 @@
   <r>
     <n v="3481"/>
     <s v="Marcos Gomes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-02T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -9061,7 +8349,7 @@
   <r>
     <n v="3482"/>
     <s v="Natália Soares"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-03T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -9076,7 +8364,7 @@
   <r>
     <n v="3483"/>
     <s v="Oscar Machado"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-04T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -9091,7 +8379,7 @@
   <r>
     <n v="3484"/>
     <s v="Patrícia Lima"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-05T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -9106,7 +8394,7 @@
   <r>
     <n v="3485"/>
     <s v="Quirino Neto"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-06T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -9121,7 +8409,7 @@
   <r>
     <n v="3486"/>
     <s v="Rafaela Souza"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-07T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -9136,7 +8424,7 @@
   <r>
     <n v="3487"/>
     <s v="Sandro Almeida"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-08T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -9151,7 +8439,7 @@
   <r>
     <n v="3488"/>
     <s v="Tânia Ribeiro"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-09T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -9166,7 +8454,7 @@
   <r>
     <n v="3489"/>
     <s v="Ugo Dias"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-10T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -9181,7 +8469,7 @@
   <r>
     <n v="3490"/>
     <s v="Valéria Lima"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-11T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -9196,7 +8484,7 @@
   <r>
     <n v="3491"/>
     <s v="William Fernandes"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-12T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -9211,7 +8499,7 @@
   <r>
     <n v="3492"/>
     <s v="Xuxa Mendes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-13T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -9226,7 +8514,7 @@
   <r>
     <n v="3493"/>
     <s v="Ygor Farias"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-14T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -9241,7 +8529,7 @@
   <r>
     <n v="3494"/>
     <s v="Zilda Barros"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-15T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -9256,7 +8544,7 @@
   <r>
     <n v="3495"/>
     <s v="Amanda Santos"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-16T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -9271,7 +8559,7 @@
   <r>
     <n v="3496"/>
     <s v="Bruno Costa"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-17T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -9286,7 +8574,7 @@
   <r>
     <n v="3497"/>
     <s v="Carla Rodrigues"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-18T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -9301,7 +8589,7 @@
   <r>
     <n v="3498"/>
     <s v="Diogo Pereira"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-19T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -9316,7 +8604,7 @@
   <r>
     <n v="3499"/>
     <s v="Elisa Correia"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-20T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -9331,7 +8619,7 @@
   <r>
     <n v="3500"/>
     <s v="Fábio Lourenço"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-21T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -9346,7 +8634,7 @@
   <r>
     <n v="3501"/>
     <s v="Gabriela Neves"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-22T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -9361,7 +8649,7 @@
   <r>
     <n v="3502"/>
     <s v="Henrique Gonçalves"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-23T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -9376,7 +8664,7 @@
   <r>
     <n v="3503"/>
     <s v="Íris Santos"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-24T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -9391,7 +8679,7 @@
   <r>
     <n v="3504"/>
     <s v="João Marcelo Alves"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-25T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -9406,7 +8694,7 @@
   <r>
     <n v="3505"/>
     <s v="Klara Fonseca"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-26T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -9421,7 +8709,7 @@
   <r>
     <n v="3506"/>
     <s v="Lucas Mendonça"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-27T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -9436,7 +8724,7 @@
   <r>
     <n v="3507"/>
     <s v="Marcela Torres"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-28T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -9451,7 +8739,7 @@
   <r>
     <n v="3508"/>
     <s v="Natália Castro"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-29T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -9466,7 +8754,7 @@
   <r>
     <n v="3509"/>
     <s v="Oscar Martins"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-30T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -9481,7 +8769,7 @@
   <r>
     <n v="3510"/>
     <s v="Patrícia Oliveira"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-12-01T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -9496,7 +8784,7 @@
   <r>
     <n v="3511"/>
     <s v="Quentin Nogueira"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-12-02T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -9511,7 +8799,7 @@
   <r>
     <n v="3512"/>
     <s v="Raquel Silva"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-12-03T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -9526,7 +8814,7 @@
   <r>
     <n v="3513"/>
     <s v="Sandro Gomes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-12-04T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -9541,7 +8829,7 @@
   <r>
     <n v="3514"/>
     <s v="Tânia Machado"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-12-05T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -9556,7 +8844,7 @@
   <r>
     <n v="3515"/>
     <s v="Ursula Silva"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-12-06T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -9571,7 +8859,7 @@
   <r>
     <n v="3516"/>
     <s v="Vanessa Moraes"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-12-07T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -9586,7 +8874,7 @@
   <r>
     <n v="3517"/>
     <s v="William Carvalho"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-12-08T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -9601,7 +8889,7 @@
   <r>
     <n v="3518"/>
     <s v="Xavier Reis"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-12-09T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -9616,7 +8904,7 @@
   <r>
     <n v="3519"/>
     <s v="Yasmin Rocha"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-12-10T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -9631,7 +8919,7 @@
   <r>
     <n v="3520"/>
     <s v="Zacarias Duarte"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-12-11T00:00:00"/>
     <x v="0"/>
     <n v="15"/>
@@ -9646,7 +8934,7 @@
   <r>
     <n v="3521"/>
     <s v="Amanda Freitas"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-12-12T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
@@ -9661,7 +8949,7 @@
   <r>
     <n v="3522"/>
     <s v="Bruno Almeida"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-12-13T00:00:00"/>
     <x v="0"/>
     <n v="5"/>
@@ -9676,7 +8964,7 @@
   <r>
     <n v="3523"/>
     <s v="Carla Siqueira"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-12-14T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
@@ -9691,7 +8979,7 @@
   <r>
     <n v="3524"/>
     <s v="Diogo Ramos"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-12-15T00:00:00"/>
     <x v="0"/>
     <n v="10"/>
@@ -9706,7 +8994,7 @@
   <r>
     <n v="3525"/>
     <s v="Elisa Magalhães"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-12-16T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
@@ -9722,7 +9010,88 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EC8D6D2-BFCC-48E6-989A-4B46A9CE0253}" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7152702-2DC3-4B9B-BADD-D539D663B306}" name="Tbl_easeasonpass_total" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B24:C28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de EA Play Season Pass" fld="8" baseField="2" baseItem="1"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="20">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EC8D6D2-BFCC-48E6-989A-4B46A9CE0253}" name="Tbl_annual_total" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B12:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -9776,7 +9145,7 @@
     <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="12">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9827,7 +9196,8 @@
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Subscription_Type" xr10:uid="{0D8AF5E2-2E6B-4BB8-BAC2-37FA7F95A8FD}" sourceName="Subscription Type">
   <pivotTables>
-    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+    <pivotTable tabId="3" name="Tbl_annual_total"/>
+    <pivotTable tabId="3" name="Tbl_easeasonpass_total"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1162036948">
@@ -9843,18 +9213,12 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Subscription Type" xr10:uid="{2577FA2C-726B-4A41-A454-37E836B311B6}" cache="SegmentaçãodeDados_Subscription_Type" caption="Subscription Type" style="SlicerStyleLight6" rowHeight="241300"/>
-</slicers>
-</file>
-
-<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Subscription Type 1" xr10:uid="{FF8009D7-D4F7-449F-BFC9-CD4FABB74537}" cache="SegmentaçãodeDados_Subscription_Type" caption="Subscription Type" style="SlicerStyleLight6 2" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="45">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
     <filterColumn colId="7">
       <filters>
@@ -9863,19 +9227,19 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="20" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="17" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="15" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="14" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="13" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="39" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="36" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="34" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="33" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="32" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10376,7 +9740,7 @@
   </sheetPr>
   <dimension ref="A1:M296"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:M294"/>
     </sheetView>
   </sheetViews>
@@ -22547,16 +21911,16 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="B3:F15"/>
+  <dimension ref="B3:F28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.25" customWidth="1"/>
     <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
@@ -22628,19 +21992,70 @@
         <v>2308</v>
       </c>
     </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="15">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="15">
+        <v>990</v>
+      </c>
+      <c r="F28">
+        <f>GETPIVOTDATA("EA Play Season Pass
+Price",$B$24)</f>
+        <v>990</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -22649,7 +22064,7 @@
   <dimension ref="A2:Q168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/dashboard_xbox_sales.xlsx
+++ b/dashboard_xbox_sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DIO\DIO-Vendas-do-Xbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48979E7-6DE4-4007-99E1-2862375048C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3997B9B0-A4ED-4FBB-8D1D-82F632E764BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
@@ -1256,7 +1256,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1287,6 +1287,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -1294,7 +1295,79 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="65">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1403,21 +1476,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1462,8 +1520,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{14279B14-3B4E-4DF9-8110-D0080E74140C}">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
-      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="46"/>
+      <tableStyleElement type="headerRow" dxfId="45"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2688,10 +2746,10 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>806</c:v>
+                  <c:v>2824</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1502</c:v>
+                  <c:v>747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4202,8 +4260,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2500314" y="3190874"/>
-          <a:ext cx="5048249" cy="3083719"/>
+          <a:off x="2505490" y="3227110"/>
+          <a:ext cx="5026508" cy="3145322"/>
           <a:chOff x="5143500" y="1785937"/>
           <a:chExt cx="5048250" cy="3083719"/>
         </a:xfrm>
@@ -4334,8 +4392,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="1459707"/>
-              <a:ext cx="2076450" cy="2524125"/>
+              <a:off x="0" y="1461778"/>
+              <a:ext cx="2076450" cy="2572784"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4365,150 +4423,260 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:rowOff>54871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
+      <xdr:colOff>309563</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Agrupar 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC3131C-F3DD-4AC5-9374-FCE140C169BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBB88F0-C5F9-4B73-92B1-305A948BD1A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2500313" y="1440656"/>
-          <a:ext cx="5048249" cy="1607344"/>
+          <a:off x="2505489" y="1438067"/>
+          <a:ext cx="5026509" cy="1642546"/>
+          <a:chOff x="2505489" y="1438067"/>
+          <a:chExt cx="5026509" cy="1642546"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 6990"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC3131C-F3DD-4AC5-9374-FCE140C169BE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2505489" y="1442727"/>
+            <a:ext cx="5026508" cy="1637886"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 6990"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="C̳álculos!F28">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Retângulo: Cantos Arredondados 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5B54D8-4541-40B8-924B-DFED99970C4E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3727275" y="1865555"/>
+            <a:ext cx="3427756" cy="1129851"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 6990"/>
+            </a:avLst>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>45244</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>116681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="C̳álculos!F28">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Retângulo: Cantos Arredondados 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5B54D8-4541-40B8-924B-DFED99970C4E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3140869" y="1747837"/>
-          <a:ext cx="3443287" cy="1109663"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 6990"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="2AE6B1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{D0EB33DE-486F-47AA-ABAD-F57EADDF9C11}" type="TxLink">
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{D0EB33DE-486F-47AA-ABAD-F57EADDF9C11}" type="TxLink">
+              <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="5BF6A8"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t> R$ 1.350,00 </a:t>
+            </a:fld>
+            <a:endParaRPr lang="pt-BR" sz="3600">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="5BF6A8"/>
               </a:solidFill>
-              <a:latin typeface="Aptos Narrow"/>
-            </a:rPr>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Imagem 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB35086-003C-4602-BA2A-AB677636D383}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2687807" y="1810786"/>
+            <a:ext cx="1365388" cy="1239389"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Retângulo: Cantos Superiores Arredondados 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD468C4C-4C12-4996-94CF-C48829AB67DE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2505489" y="1438067"/>
+            <a:ext cx="5026509" cy="619643"/>
+          </a:xfrm>
+          <a:prstGeom prst="round2SameRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="2AE6B1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr algn="ctr"/>
-            <a:t>990</a:t>
-          </a:fld>
-          <a:endParaRPr lang="pt-BR" sz="3600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1">
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>TOTAL SUBSCRITIONS EA PLAY</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> SEASON PASS</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9068,13 +9236,13 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="2" hier="-1"/>
+    <pageField fld="6" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Soma de EA Play Season Pass" fld="8" baseField="2" baseItem="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="20">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9139,13 +9307,13 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="2" hier="-1"/>
+    <pageField fld="6" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="31">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9203,8 +9371,8 @@
     <tabular pivotCacheId="1162036948">
       <items count="3">
         <i x="1"/>
-        <i x="0"/>
-        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+        <i x="2"/>
       </items>
     </tabular>
   </data>
@@ -9218,7 +9386,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="64">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
     <filterColumn colId="7">
       <filters>
@@ -9227,19 +9395,19 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="39" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="36" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="34" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="33" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="32" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="58" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="55" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="53" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="52" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="51" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21913,8 +22081,8 @@
   </sheetPr>
   <dimension ref="B3:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21957,7 +22125,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -21973,7 +22141,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="15">
-        <v>806</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -21981,7 +22149,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>1502</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -21989,7 +22157,7 @@
         <v>318</v>
       </c>
       <c r="C15" s="15">
-        <v>2308</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -22002,7 +22170,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -22034,7 +22202,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="15">
-        <v>990</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -22042,12 +22210,12 @@
         <v>318</v>
       </c>
       <c r="C28" s="15">
-        <v>990</v>
-      </c>
-      <c r="F28">
+        <v>1350</v>
+      </c>
+      <c r="F28" s="18">
         <f>GETPIVOTDATA("EA Play Season Pass
 Price",$B$24)</f>
-        <v>990</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -22063,8 +22231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
   <dimension ref="A2:Q168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/dashboard_xbox_sales.xlsx
+++ b/dashboard_xbox_sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DIO\DIO-Vendas-do-Xbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3997B9B0-A4ED-4FBB-8D1D-82F632E764BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163C9D87-F8BE-45C3-8F77-AB9D484C136E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="324">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -1106,6 +1106,12 @@
   </si>
   <si>
     <t>Soma de EA Play Season Pass</t>
+  </si>
+  <si>
+    <t>Pergunta Negócio 4 - Total de Vendas de Assinaturas do Minecraft Season Pass</t>
+  </si>
+  <si>
+    <t>Soma de Minecraft Season Pass Price</t>
   </si>
 </sst>
 </file>
@@ -1295,19 +1301,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1467,15 +1461,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1520,8 +1505,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{14279B14-3B4E-4DF9-8110-D0080E74140C}">
-      <tableStyleElement type="wholeTable" dxfId="46"/>
-      <tableStyleElement type="headerRow" dxfId="45"/>
+      <tableStyleElement type="wholeTable" dxfId="42"/>
+      <tableStyleElement type="headerRow" dxfId="41"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1540,703 +1525,7 @@
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
-      <x14:dxfs count="32">
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.79998168889431442"/>
-              <bgColor theme="9" tint="0.79998168889431442"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.59999389629810485"/>
-              <bgColor theme="9" tint="0.59999389629810485"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFE0E0E0"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFE0E0E0"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFE0E0E0"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFE0E0E0"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.79998168889431442"/>
-              <bgColor theme="9" tint="0.79998168889431442"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.59999389629810485"/>
-              <bgColor theme="9" tint="0.59999389629810485"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFE0E0E0"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFE0E0E0"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFE0E0E0"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFE0E0E0"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.79998168889431442"/>
-              <bgColor theme="9" tint="0.79998168889431442"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.59999389629810485"/>
-              <bgColor theme="9" tint="0.59999389629810485"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFE0E0E0"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFE0E0E0"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFE0E0E0"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFE0E0E0"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
+      <x14:dxfs count="8">
         <dxf>
           <font>
             <color rgb="FF000000"/>
@@ -4428,13 +3717,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>54871</xdr:rowOff>
+      <xdr:rowOff>44104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:rowOff>96389</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4449,7 +3738,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2505489" y="1438067"/>
+          <a:off x="2505489" y="1427300"/>
           <a:ext cx="5026509" cy="1642546"/>
           <a:chOff x="2505489" y="1438067"/>
           <a:chExt cx="5026509" cy="1642546"/>
@@ -4679,6 +3968,322 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>612084</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>41154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>321158</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99339</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Agrupar 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695DC36C-DC68-4DD9-9C14-D9AE687770EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7834519" y="1424350"/>
+          <a:ext cx="5026509" cy="1648446"/>
+          <a:chOff x="7834519" y="1416533"/>
+          <a:chExt cx="5026509" cy="1648446"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Retângulo: Cantos Arredondados 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4B848C-43E0-4DF7-9361-475A3FB64DCA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7834519" y="1421193"/>
+            <a:ext cx="5026508" cy="1637886"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 6990"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="C̳álculos!F41">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Retângulo: Cantos Arredondados 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD438E9-11E8-497F-A3B5-D741F84F99DD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9296499" y="1935128"/>
+            <a:ext cx="3427756" cy="1129851"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 6990"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:fld id="{8FD901DD-AFF6-4407-9156-ABB7C07BFC52}" type="TxLink">
+              <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="5BF6A8"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:t> R$ 1.800,00 </a:t>
+            </a:fld>
+            <a:endParaRPr lang="pt-BR" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="5BF6A8"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Retângulo: Cantos Superiores Arredondados 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFEBEDF8-6A7F-4ADB-A347-09E0A3F84D39}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7834519" y="1416533"/>
+            <a:ext cx="5026509" cy="619643"/>
+          </a:xfrm>
+          <a:prstGeom prst="round2SameRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="2AE6B1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1">
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>TOTAL SUBSCRITIONS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> MINECRAFT SEASON PASS</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="17" name="Agrupar 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D8BBE9B-DCEB-4F1C-8886-E263B28E7A27}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8083826" y="2150482"/>
+            <a:ext cx="1579294" cy="612913"/>
+            <a:chOff x="3495675" y="5400674"/>
+            <a:chExt cx="1549476" cy="752476"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Imagem 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A44B7B7-C4F8-4171-80BD-5D0E1BFF7026}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3998608" y="5400674"/>
+              <a:ext cx="555497" cy="609599"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Gráfico 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8507AD5-47DD-473C-86BD-0058BE8E76E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3495675" y="5895937"/>
+              <a:ext cx="1549476" cy="257213"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9178,6 +8783,87 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E054BDCF-FE11-4FDB-B8E0-E10861C89C0F}" name="Tabela dinâmica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B37:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7152702-2DC3-4B9B-BADD-D539D663B306}" name="Tbl_easeasonpass_total" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B24:C28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
@@ -9242,7 +8928,7 @@
     <dataField name="Soma de EA Play Season Pass" fld="8" baseField="2" baseItem="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="44">
+    <format dxfId="40">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9258,7 +8944,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EC8D6D2-BFCC-48E6-989A-4B46A9CE0253}" name="Tbl_annual_total" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B12:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
@@ -9313,32 +8999,11 @@
     <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="50">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="1">
     <chartFormat chart="3" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -9366,6 +9031,7 @@
   <pivotTables>
     <pivotTable tabId="3" name="Tbl_annual_total"/>
     <pivotTable tabId="3" name="Tbl_easeasonpass_total"/>
+    <pivotTable tabId="3" name="Tabela dinâmica3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1162036948">
@@ -9386,7 +9052,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="57">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
     <filterColumn colId="7">
       <filters>
@@ -9395,19 +9061,19 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="58" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="56"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="55" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="54"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="53" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="52" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="51" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="51" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="48" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="46" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="45" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="44" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22079,16 +21745,16 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="B3:F28"/>
+  <dimension ref="B3:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.25" customWidth="1"/>
     <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
@@ -22218,12 +21884,69 @@
         <v>1350</v>
       </c>
     </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="18">
+        <f>GETPIVOTDATA("Minecraft Season Pass Price",$B$37)</f>
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -22232,7 +21955,7 @@
   <dimension ref="A2:Q168"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/dashboard_xbox_sales.xlsx
+++ b/dashboard_xbox_sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DIO\DIO-Vendas-do-Xbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163C9D87-F8BE-45C3-8F77-AB9D484C136E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A27517D-E819-4421-8FBD-05B21A232711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
@@ -1301,10 +1301,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="57">
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1505,8 +1502,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{14279B14-3B4E-4DF9-8110-D0080E74140C}">
-      <tableStyleElement type="wholeTable" dxfId="42"/>
-      <tableStyleElement type="headerRow" dxfId="41"/>
+      <tableStyleElement type="wholeTable" dxfId="41"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1957,12 +1954,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:srgbClr val="2AE6B1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1972,8 +1966,9 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2014,6 +2009,61 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="2AE6B1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>C̳álculos!$B$13:$B$15</c:f>
@@ -2174,8 +2224,6 @@
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -3523,117 +3571,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Agrupar 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68C129F-59AF-49AD-963B-B801145A6497}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2505490" y="3227110"/>
-          <a:ext cx="5026508" cy="3145322"/>
-          <a:chOff x="5143500" y="1785937"/>
-          <a:chExt cx="5048250" cy="3083719"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Retângulo: Cantos Arredondados 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32857F68-3BAC-436F-ABF4-EF65D0C690B8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5143500" y="1785937"/>
-            <a:ext cx="5048250" cy="3083719"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 4698"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="3" name="Gráfico 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5758FA93-B434-4E32-8E8D-84DEFAE385CF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGraphicFramePr>
-            <a:graphicFrameLocks/>
-          </xdr:cNvGraphicFramePr>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="5405436" y="1952626"/>
-          <a:ext cx="4572001" cy="2743200"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3681,8 +3618,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="1461778"/>
-              <a:ext cx="2076450" cy="2572784"/>
+              <a:off x="0" y="1450182"/>
+              <a:ext cx="2076450" cy="2557462"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3738,8 +3675,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2505489" y="1427300"/>
-          <a:ext cx="5026509" cy="1642546"/>
+          <a:off x="2505075" y="1415704"/>
+          <a:ext cx="5014913" cy="1633435"/>
           <a:chOff x="2505489" y="1438067"/>
           <a:chExt cx="5026509" cy="1642546"/>
         </a:xfrm>
@@ -3876,7 +3813,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3994,8 +3931,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7834519" y="1424350"/>
-          <a:ext cx="5026509" cy="1648446"/>
+          <a:off x="7822509" y="1412754"/>
+          <a:ext cx="5014499" cy="1639335"/>
           <a:chOff x="7834519" y="1416533"/>
           <a:chExt cx="5026509" cy="1648446"/>
         </a:xfrm>
@@ -4224,7 +4161,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4259,10 +4196,10 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
               <a:extLst>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -4281,6 +4218,205 @@
           </xdr:spPr>
         </xdr:pic>
       </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="Agrupar 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A8D658-3C80-43A8-90D3-49AB75FB10C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2505076" y="3205161"/>
+          <a:ext cx="10342078" cy="3124201"/>
+          <a:chOff x="2505490" y="3227110"/>
+          <a:chExt cx="10365684" cy="3145322"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="Agrupar 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68C129F-59AF-49AD-963B-B801145A6497}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2505490" y="3227110"/>
+            <a:ext cx="10365684" cy="3145322"/>
+            <a:chOff x="5143500" y="1785937"/>
+            <a:chExt cx="5048250" cy="3083719"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="Retângulo: Cantos Arredondados 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32857F68-3BAC-436F-ABF4-EF65D0C690B8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5143500" y="1785937"/>
+              <a:ext cx="5048250" cy="3083719"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 4698"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5758FA93-B434-4E32-8E8D-84DEFAE385CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="5189888" y="2050071"/>
+            <a:ext cx="4933288" cy="2743200"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Retângulo: Cantos Superiores Arredondados 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFB5C18-FFAF-4687-99F7-45A4D8A90650}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2505490" y="3227110"/>
+            <a:ext cx="10365684" cy="619643"/>
+          </a:xfrm>
+          <a:prstGeom prst="round2SameRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="2AE6B1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1">
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>TOTAL SUBSCRITIONS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> XBOX GAME PASS</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -8928,7 +9064,7 @@
     <dataField name="Soma de EA Play Season Pass" fld="8" baseField="2" baseItem="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="40">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8999,7 +9135,7 @@
     <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="43">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9052,7 +9188,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="56">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
     <filterColumn colId="7">
       <filters>
@@ -9061,19 +9197,19 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="51" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="48" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="46" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="45" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="44" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="50" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="47" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="45" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="44" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="43" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21747,7 +21883,7 @@
   </sheetPr>
   <dimension ref="B3:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -21954,8 +22090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
   <dimension ref="A2:Q168"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/dashboard_xbox_sales.xlsx
+++ b/dashboard_xbox_sales.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DIO\DIO-Vendas-do-Xbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A27517D-E819-4421-8FBD-05B21A232711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA868F-F565-4961-A3D5-5653E9CEB520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
-    <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
-    <sheet name="B̳ases" sheetId="2" r:id="rId2"/>
-    <sheet name="C̳álculos" sheetId="3" r:id="rId3"/>
+    <sheet name="A̳ssets" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="B̳ases" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="C̳álculos" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -1262,7 +1262,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1294,6 +1294,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -1301,121 +1304,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1502,8 +1391,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{14279B14-3B4E-4DF9-8110-D0080E74140C}">
-      <tableStyleElement type="wholeTable" dxfId="41"/>
-      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3525,15 +3414,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
+      <xdr:colOff>2090737</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
+      <xdr:rowOff>152398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1262062</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>261936</xdr:rowOff>
+      <xdr:rowOff>271461</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3561,8 +3450,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="547687" y="321467"/>
-          <a:ext cx="714375" cy="619125"/>
+          <a:off x="2090737" y="333373"/>
+          <a:ext cx="714375" cy="614363"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3907,14 +3796,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>612084</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>345384</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>41154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>321158</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>54458</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>99339</xdr:rowOff>
     </xdr:to>
@@ -3931,8 +3820,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7822509" y="1412754"/>
-          <a:ext cx="5014499" cy="1639335"/>
+          <a:off x="8241609" y="1412754"/>
+          <a:ext cx="5328824" cy="1639335"/>
           <a:chOff x="7834519" y="1416533"/>
           <a:chExt cx="5026509" cy="1648446"/>
         </a:xfrm>
@@ -4229,8 +4118,8 @@
       <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>331304</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
@@ -4248,7 +4137,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2505076" y="3205161"/>
-          <a:ext cx="10342078" cy="3124201"/>
+          <a:ext cx="11077574" cy="3124201"/>
           <a:chOff x="2505490" y="3227110"/>
           <a:chExt cx="10365684" cy="3145322"/>
         </a:xfrm>
@@ -4420,6 +4309,225 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Elipse 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84EC88DC-6099-4E0E-BBF5-26BADFEE12AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="295275"/>
+          <a:ext cx="771525" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Retângulo 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13435013-DD35-4729-8D96-EFCC91F5BC8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="1028700"/>
+          <a:ext cx="1657350" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>&gt;Bem vindo, Julio</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Retângulo 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583C6CAD-2C90-4706-AAE1-A7EDEAB3FFE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="1162050"/>
+          <a:ext cx="6343650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Calculation period: 01/01/2024 - 31/12/2024 | Update date: 13/04/2025 22:55:00</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8983,7 +9091,7 @@
     <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9064,7 +9172,7 @@
     <dataField name="Soma de EA Play Season Pass" fld="8" baseField="2" baseItem="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="39">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9135,7 +9243,7 @@
     <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="42">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9188,7 +9296,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
     <filterColumn colId="7">
       <filters>
@@ -9197,19 +9305,19 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="50" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="47" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="45" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="44" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="43" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="12" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="9" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="5" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9538,7 +9646,7 @@
   <dimension ref="B3:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9711,7 +9819,7 @@
   <dimension ref="A1:M296"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:M294"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22088,10 +22196,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
-  <dimension ref="A2:Q168"/>
+  <dimension ref="A2:R168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="20" ySplit="35" topLeftCell="U36" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22099,10 +22210,12 @@
     <col min="1" max="1" width="28" style="5" customWidth="1"/>
     <col min="2" max="2" width="3.625" customWidth="1"/>
     <col min="12" max="12" width="6.625" customWidth="1"/>
+    <col min="17" max="17" width="13.125" customWidth="1"/>
+    <col min="20" max="20" width="127" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="39" customHeight="1" thickBot="1">
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:18" ht="39" customHeight="1" thickBot="1">
+      <c r="C2" s="19" t="s">
         <v>319</v>
       </c>
       <c r="D2" s="17"/>
@@ -22119,45 +22232,46 @@
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
-    </row>
-    <row r="3" spans="1:17" ht="39" customHeight="1" thickTop="1"/>
-    <row r="4" spans="1:17" s="7" customFormat="1" ht="8.25" customHeight="1">
+      <c r="R2" s="17"/>
+    </row>
+    <row r="3" spans="1:18" ht="39" customHeight="1" thickTop="1"/>
+    <row r="4" spans="1:18" s="7" customFormat="1" ht="8.25" customHeight="1">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:17" s="7" customFormat="1" ht="7.5" customHeight="1">
+    <row r="5" spans="1:18" s="7" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:17" s="7" customFormat="1" ht="10.5" customHeight="1">
+    <row r="6" spans="1:18" s="7" customFormat="1" ht="10.5" customHeight="1">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" ht="9.75" customHeight="1">
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="9.75" customHeight="1">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:17" s="7" customFormat="1" ht="33" customHeight="1">
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="33" customHeight="1">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:17" s="7" customFormat="1">
+    <row r="9" spans="1:18" s="7" customFormat="1">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:17" s="7" customFormat="1">
+    <row r="10" spans="1:18" s="7" customFormat="1">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:17" s="7" customFormat="1">
+    <row r="11" spans="1:18" s="7" customFormat="1">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:17" s="7" customFormat="1">
+    <row r="12" spans="1:18" s="7" customFormat="1">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:17" s="7" customFormat="1">
+    <row r="13" spans="1:18" s="7" customFormat="1">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:17" s="7" customFormat="1">
+    <row r="14" spans="1:18" s="7" customFormat="1">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:17" s="7" customFormat="1">
+    <row r="15" spans="1:18" s="7" customFormat="1">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:17" s="7" customFormat="1">
+    <row r="16" spans="1:18" s="7" customFormat="1">
       <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:1" s="7" customFormat="1">
@@ -22211,19 +22325,19 @@
     <row r="33" spans="1:1" s="7" customFormat="1">
       <c r="A33" s="5"/>
     </row>
-    <row r="34" spans="1:1" s="7" customFormat="1">
+    <row r="34" spans="1:1" s="7" customFormat="1" ht="83.25" customHeight="1">
       <c r="A34" s="5"/>
     </row>
-    <row r="35" spans="1:1" s="7" customFormat="1">
+    <row r="35" spans="1:1" s="7" customFormat="1" ht="75.75" customHeight="1">
       <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:1" s="7" customFormat="1">
       <c r="A36" s="5"/>
     </row>
-    <row r="37" spans="1:1" s="7" customFormat="1">
+    <row r="37" spans="1:1" s="7" customFormat="1" ht="38.25" customHeight="1">
       <c r="A37" s="5"/>
     </row>
-    <row r="38" spans="1:1" s="7" customFormat="1">
+    <row r="38" spans="1:1" s="7" customFormat="1" ht="33" customHeight="1">
       <c r="A38" s="5"/>
     </row>
     <row r="39" spans="1:1" s="7" customFormat="1">
